--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_18.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21615971.40027285</v>
+        <v>21615971.40027283</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.40043854494031</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>64.40043854494031</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>23.93837961622359</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.78552665416009</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>56.72390627038342</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.40043854494031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>18.18914497932415</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.53476129105951</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.40043854494031</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.40043854494031</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>64.40043854494031</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>56.72390627038342</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1604,31 +1604,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.72390627038347</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>32.78552665416009</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>23.93837961622353</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>18.18914497932409</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.53476129105951</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.67595755514223</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.04794871524123</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>54.67158105899971</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>56.72390627038369</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R18" t="n">
-        <v>64.40043854494036</v>
+        <v>61.91362596912217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>36.04794871524125</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>64.40043854494036</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2081,70 +2081,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>76.38258547237476</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>44.26486989523735</v>
-      </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>76.38258547237476</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>76.38258547237476</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>44.26486989523718</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>76.38258547237476</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>76.38258547237476</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>67.27778128406764</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>76.38258547237476</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>76.38258547237476</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>76.38258547237476</v>
       </c>
       <c r="H21" t="n">
-        <v>67.27778128406764</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>76.38258547237476</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>76.38258547237476</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>76.38258547237476</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.78552665416009</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.66723710216408</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.18099140335098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>32.35480709495119</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>72.47129745540887</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>82.27894806472398</v>
+        <v>72.47129745540884</v>
       </c>
       <c r="E24" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
     </row>
     <row r="25">
@@ -2558,67 +2558,67 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>82.27894806472392</v>
+      </c>
+      <c r="T26" t="n">
+        <v>82.27894806472392</v>
+      </c>
+      <c r="U26" t="n">
         <v>32.35480709495119</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>72.47129745540884</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>72.4712974554089</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>32.35480709495119</v>
       </c>
       <c r="E29" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.35480709495118</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.26057860920709</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R30" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>51.79533990026669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.35480709495119</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>32.35480709495118</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>82.27894806472398</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>72.47129745540884</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>72.47129745540887</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="X33" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>56.72390627038364</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>56.72390627038369</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
     </row>
     <row r="36">
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>56.72390627038364</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>36.04794871524105</v>
       </c>
     </row>
     <row r="37">
@@ -3506,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>56.72390627038369</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="W38" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>56.72390627038345</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>56.72390627038364</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="G39" t="n">
-        <v>64.40043854494056</v>
+        <v>56.72390627038331</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3785,22 +3785,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.72390627038347</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>64.40043854494056</v>
+        <v>56.7239062703835</v>
       </c>
       <c r="U41" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>56.72390627038362</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>56.7239062703835</v>
       </c>
       <c r="W42" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="Y42" t="n">
-        <v>64.40043854494056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.17003125669942</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.41829161750615</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="V44" t="n">
-        <v>52.41829161750615</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>52.41829161750615</v>
+        <v>46.17003125669937</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>25.49407370155719</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.41829161750615</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,22 +4098,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.67595755514222</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.41829161750615</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>52.41829161750615</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>46.17003125669939</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.20298310878746</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="C11" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="D11" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="E11" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="F11" t="n">
-        <v>5.152035083595226</v>
+        <v>233.4215727492335</v>
       </c>
       <c r="G11" t="n">
-        <v>5.152035083595226</v>
+        <v>168.370624724041</v>
       </c>
       <c r="H11" t="n">
-        <v>5.152035083595226</v>
+        <v>103.3196766988485</v>
       </c>
       <c r="I11" t="n">
-        <v>5.152035083595226</v>
+        <v>38.26872867365595</v>
       </c>
       <c r="J11" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="K11" t="n">
-        <v>7.244917702858373</v>
+        <v>7.244917702858622</v>
       </c>
       <c r="L11" t="n">
-        <v>46.74308551533417</v>
+        <v>46.74308551533453</v>
       </c>
       <c r="M11" t="n">
-        <v>110.4995196748251</v>
+        <v>110.4995196748257</v>
       </c>
       <c r="N11" t="n">
-        <v>174.255953834316</v>
+        <v>174.2559538343169</v>
       </c>
       <c r="O11" t="n">
-        <v>237.8374333130951</v>
+        <v>237.8374333130961</v>
       </c>
       <c r="P11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="R11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="S11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="T11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="U11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="V11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="W11" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3048791591719</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="Y11" t="n">
-        <v>135.2539311339797</v>
+        <v>257.6017541797623</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="C12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="D12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="E12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="F12" t="n">
-        <v>5.152035083595226</v>
+        <v>239.2288804632733</v>
       </c>
       <c r="G12" t="n">
-        <v>5.152035083595226</v>
+        <v>174.1779324380808</v>
       </c>
       <c r="H12" t="n">
-        <v>5.152035083595226</v>
+        <v>109.1269844128883</v>
       </c>
       <c r="I12" t="n">
-        <v>5.152035083595226</v>
+        <v>44.07603638769577</v>
       </c>
       <c r="J12" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="K12" t="n">
-        <v>18.10343548335338</v>
+        <v>18.10343548335345</v>
       </c>
       <c r="L12" t="n">
-        <v>81.84073277806347</v>
+        <v>81.84073277806363</v>
       </c>
       <c r="M12" t="n">
-        <v>145.5971669375544</v>
+        <v>86.03329103301029</v>
       </c>
       <c r="N12" t="n">
-        <v>209.3536010970453</v>
+        <v>149.7897251925015</v>
       </c>
       <c r="O12" t="n">
-        <v>213.5461593519917</v>
+        <v>213.5461593519927</v>
       </c>
       <c r="P12" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="Q12" t="n">
-        <v>257.6017541797613</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="R12" t="n">
-        <v>192.550806154569</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="S12" t="n">
-        <v>127.4998581293768</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="T12" t="n">
-        <v>62.44891010418453</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="U12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="V12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="W12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="X12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.152035083595226</v>
+        <v>257.6017541797623</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="C13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="D13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="E13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="F13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="G13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="H13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="J13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="K13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="L13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="M13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="N13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="O13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="P13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="R13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="S13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="T13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="U13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="V13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="W13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="X13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.152035083595226</v>
+        <v>5.152035083595247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.2539311339798</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="C14" t="n">
-        <v>135.2539311339798</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="D14" t="n">
-        <v>70.20298310878751</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="E14" t="n">
-        <v>5.152035083595229</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="F14" t="n">
-        <v>5.152035083595229</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="G14" t="n">
-        <v>5.152035083595229</v>
+        <v>168.3706247240409</v>
       </c>
       <c r="H14" t="n">
-        <v>5.152035083595229</v>
+        <v>103.3196766988484</v>
       </c>
       <c r="I14" t="n">
-        <v>5.152035083595229</v>
+        <v>38.26872867365595</v>
       </c>
       <c r="J14" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="K14" t="n">
-        <v>7.244917702858345</v>
+        <v>7.244917702858515</v>
       </c>
       <c r="L14" t="n">
-        <v>46.74308551533416</v>
+        <v>46.74308551533444</v>
       </c>
       <c r="M14" t="n">
-        <v>110.4995196748251</v>
+        <v>110.4995196748256</v>
       </c>
       <c r="N14" t="n">
-        <v>174.2559538343161</v>
+        <v>174.2559538343168</v>
       </c>
       <c r="O14" t="n">
-        <v>237.8374333130952</v>
+        <v>237.8374333130959</v>
       </c>
       <c r="P14" t="n">
-        <v>257.6017541797614</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6017541797614</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="R14" t="n">
-        <v>257.6017541797614</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="S14" t="n">
-        <v>257.6017541797614</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="T14" t="n">
-        <v>257.6017541797614</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="U14" t="n">
-        <v>257.6017541797614</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="V14" t="n">
-        <v>257.6017541797614</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="W14" t="n">
-        <v>257.6017541797614</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="X14" t="n">
-        <v>192.5508061545692</v>
+        <v>233.4215727492334</v>
       </c>
       <c r="Y14" t="n">
-        <v>192.5508061545692</v>
+        <v>233.4215727492334</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="C15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="D15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="E15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="F15" t="n">
-        <v>5.152035083595229</v>
+        <v>239.2288804632732</v>
       </c>
       <c r="G15" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380807</v>
       </c>
       <c r="H15" t="n">
-        <v>5.152035083595229</v>
+        <v>109.1269844128882</v>
       </c>
       <c r="I15" t="n">
-        <v>5.152035083595229</v>
+        <v>44.07603638769577</v>
       </c>
       <c r="J15" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="K15" t="n">
-        <v>18.10343548335341</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="L15" t="n">
-        <v>22.27685687351894</v>
+        <v>68.88933237830543</v>
       </c>
       <c r="M15" t="n">
-        <v>86.03329103300989</v>
+        <v>132.6457665377966</v>
       </c>
       <c r="N15" t="n">
-        <v>149.7897251925008</v>
+        <v>149.7897251925014</v>
       </c>
       <c r="O15" t="n">
-        <v>213.5461593519918</v>
+        <v>213.5461593519925</v>
       </c>
       <c r="P15" t="n">
-        <v>257.6017541797614</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7169485685066</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="R15" t="n">
-        <v>200.3048791591721</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="S15" t="n">
-        <v>135.2539311339798</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="T15" t="n">
-        <v>70.20298310878751</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="U15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="V15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="W15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="X15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.152035083595229</v>
+        <v>257.6017541797622</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="C16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="D16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="E16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="F16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="G16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="H16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="J16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="K16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="L16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="M16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="N16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="O16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="P16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="R16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="S16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="T16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="U16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="V16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="W16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="X16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595244</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.152035083595229</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="C17" t="n">
-        <v>5.152035083595229</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="D17" t="n">
-        <v>5.152035083595229</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="E17" t="n">
-        <v>5.152035083595229</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="F17" t="n">
-        <v>5.152035083595229</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="G17" t="n">
-        <v>5.152035083595229</v>
+        <v>168.3706247240407</v>
       </c>
       <c r="H17" t="n">
-        <v>5.152035083595229</v>
+        <v>103.3196766988483</v>
       </c>
       <c r="I17" t="n">
-        <v>5.152035083595229</v>
+        <v>38.26872867365597</v>
       </c>
       <c r="J17" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="K17" t="n">
-        <v>7.244917702858521</v>
+        <v>7.244917702858558</v>
       </c>
       <c r="L17" t="n">
-        <v>46.74308551533438</v>
+        <v>46.74308551533436</v>
       </c>
       <c r="M17" t="n">
         <v>110.4995196748253</v>
       </c>
       <c r="N17" t="n">
-        <v>174.2559538343163</v>
+        <v>174.2559538343164</v>
       </c>
       <c r="O17" t="n">
-        <v>237.8374333130954</v>
+        <v>237.8374333130955</v>
       </c>
       <c r="P17" t="n">
         <v>257.6017541797617</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6017541797617</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="R17" t="n">
-        <v>257.6017541797617</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="S17" t="n">
-        <v>257.6017541797617</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="T17" t="n">
-        <v>257.6017541797617</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="U17" t="n">
-        <v>257.6017541797617</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="V17" t="n">
-        <v>200.3048791591721</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="W17" t="n">
-        <v>200.3048791591721</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="X17" t="n">
-        <v>135.2539311339798</v>
+        <v>223.5944439755555</v>
       </c>
       <c r="Y17" t="n">
-        <v>70.20298310878751</v>
+        <v>223.5944439755555</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="C18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="D18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="E18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="F18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="G18" t="n">
-        <v>5.152035083595229</v>
+        <v>109.1269844128881</v>
       </c>
       <c r="H18" t="n">
-        <v>5.152035083595229</v>
+        <v>44.07603638769579</v>
       </c>
       <c r="I18" t="n">
-        <v>5.152035083595229</v>
+        <v>44.07603638769579</v>
       </c>
       <c r="J18" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="K18" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="L18" t="n">
-        <v>22.27685687351894</v>
+        <v>22.27685687351902</v>
       </c>
       <c r="M18" t="n">
-        <v>86.03329103300989</v>
+        <v>86.03329103301004</v>
       </c>
       <c r="N18" t="n">
-        <v>149.7897251925008</v>
+        <v>149.7897251925011</v>
       </c>
       <c r="O18" t="n">
-        <v>213.5461593519918</v>
+        <v>213.5461593519921</v>
       </c>
       <c r="P18" t="n">
-        <v>257.6017541797614</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7169485685067</v>
+        <v>236.7169485685069</v>
       </c>
       <c r="R18" t="n">
-        <v>171.6660005433144</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6660005433144</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="T18" t="n">
-        <v>135.2539311339798</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="U18" t="n">
-        <v>70.20298310878751</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="V18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="W18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="X18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.152035083595229</v>
+        <v>174.1779324380805</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="C19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="D19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="E19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="F19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="G19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="H19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="J19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="K19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="L19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="M19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="N19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="O19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="P19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="R19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="S19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="T19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="U19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="V19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="W19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="X19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.152035083595229</v>
+        <v>5.152035083595234</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>83.26473357756248</v>
+        <v>6.11060683778998</v>
       </c>
       <c r="C20" t="n">
         <v>6.11060683778998</v>
@@ -5753,49 +5753,49 @@
         <v>6.11060683778998</v>
       </c>
       <c r="K20" t="n">
-        <v>8.203489457053273</v>
+        <v>8.203489457053244</v>
       </c>
       <c r="L20" t="n">
-        <v>47.70165726952913</v>
+        <v>47.70165726952904</v>
       </c>
       <c r="M20" t="n">
-        <v>123.3204168871801</v>
+        <v>123.32041688718</v>
       </c>
       <c r="N20" t="n">
-        <v>198.9391765048312</v>
+        <v>198.939176504831</v>
       </c>
       <c r="O20" t="n">
-        <v>262.5206559836103</v>
+        <v>262.5206559836101</v>
       </c>
       <c r="P20" t="n">
-        <v>282.2849768502765</v>
+        <v>282.2849768502763</v>
       </c>
       <c r="Q20" t="n">
-        <v>282.2849768502765</v>
+        <v>282.2849768502763</v>
       </c>
       <c r="R20" t="n">
-        <v>237.5729870571075</v>
+        <v>205.1308501105038</v>
       </c>
       <c r="S20" t="n">
-        <v>237.5729870571075</v>
+        <v>127.9767233707313</v>
       </c>
       <c r="T20" t="n">
-        <v>237.5729870571075</v>
+        <v>50.82259663095886</v>
       </c>
       <c r="U20" t="n">
-        <v>237.5729870571075</v>
+        <v>6.11060683778998</v>
       </c>
       <c r="V20" t="n">
-        <v>237.5729870571075</v>
+        <v>6.11060683778998</v>
       </c>
       <c r="W20" t="n">
-        <v>160.418860317335</v>
+        <v>6.11060683778998</v>
       </c>
       <c r="X20" t="n">
-        <v>83.26473357756248</v>
+        <v>6.11060683778998</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.26473357756248</v>
+        <v>6.11060683778998</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.06796167018155</v>
+        <v>305.530341889499</v>
       </c>
       <c r="C21" t="n">
-        <v>74.06796167018155</v>
+        <v>237.5729870571075</v>
       </c>
       <c r="D21" t="n">
-        <v>74.06796167018155</v>
+        <v>237.5729870571075</v>
       </c>
       <c r="E21" t="n">
-        <v>74.06796167018155</v>
+        <v>160.418860317335</v>
       </c>
       <c r="F21" t="n">
-        <v>74.06796167018155</v>
+        <v>83.26473357756248</v>
       </c>
       <c r="G21" t="n">
-        <v>74.06796167018155</v>
+        <v>6.11060683778998</v>
       </c>
       <c r="H21" t="n">
         <v>6.11060683778998</v>
@@ -5835,7 +5835,7 @@
         <v>19.06200723754816</v>
       </c>
       <c r="L21" t="n">
-        <v>82.7993045322583</v>
+        <v>82.79930453225828</v>
       </c>
       <c r="M21" t="n">
         <v>110.2372278264274</v>
@@ -5856,25 +5856,25 @@
         <v>305.530341889499</v>
       </c>
       <c r="S21" t="n">
-        <v>228.3762151497265</v>
+        <v>305.530341889499</v>
       </c>
       <c r="T21" t="n">
-        <v>228.3762151497265</v>
+        <v>305.530341889499</v>
       </c>
       <c r="U21" t="n">
-        <v>151.222088409954</v>
+        <v>305.530341889499</v>
       </c>
       <c r="V21" t="n">
-        <v>151.222088409954</v>
+        <v>305.530341889499</v>
       </c>
       <c r="W21" t="n">
-        <v>151.222088409954</v>
+        <v>305.530341889499</v>
       </c>
       <c r="X21" t="n">
-        <v>74.06796167018155</v>
+        <v>305.530341889499</v>
       </c>
       <c r="Y21" t="n">
-        <v>74.06796167018155</v>
+        <v>305.530341889499</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="C22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="D22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="E22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="F22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="G22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="H22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="I22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="J22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="K22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="L22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="M22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="N22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="O22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="P22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="R22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="S22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="T22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="U22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="V22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="W22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="X22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.11060683778998</v>
+        <v>305.530341889499</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>122.8090579854649</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="C23" t="n">
-        <v>122.8090579854649</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="D23" t="n">
-        <v>122.8090579854649</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="E23" t="n">
-        <v>122.8090579854649</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="F23" t="n">
-        <v>122.8090579854649</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="G23" t="n">
-        <v>39.69900943523862</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H23" t="n">
-        <v>39.69900943523862</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I23" t="n">
-        <v>39.69900943523862</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J23" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K23" t="n">
-        <v>8.675198464441211</v>
+        <v>8.675198464441177</v>
       </c>
       <c r="L23" t="n">
-        <v>48.17336627691706</v>
+        <v>48.17336627691698</v>
       </c>
       <c r="M23" t="n">
-        <v>123.7921258945681</v>
+        <v>123.792125894568</v>
       </c>
       <c r="N23" t="n">
-        <v>205.2482844786448</v>
+        <v>205.2482844786447</v>
       </c>
       <c r="O23" t="n">
-        <v>268.8297639574239</v>
+        <v>268.8297639574237</v>
       </c>
       <c r="P23" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="Q23" t="n">
-        <v>254.586774619884</v>
+        <v>288.59408482409</v>
       </c>
       <c r="R23" t="n">
-        <v>254.586774619884</v>
+        <v>288.59408482409</v>
       </c>
       <c r="S23" t="n">
-        <v>205.9191065356911</v>
+        <v>288.59408482409</v>
       </c>
       <c r="T23" t="n">
-        <v>122.8090579854649</v>
+        <v>288.59408482409</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8090579854649</v>
+        <v>205.4840362738638</v>
       </c>
       <c r="V23" t="n">
-        <v>122.8090579854649</v>
+        <v>122.3739877236376</v>
       </c>
       <c r="W23" t="n">
-        <v>122.8090579854649</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="X23" t="n">
-        <v>122.8090579854649</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="Y23" t="n">
-        <v>122.8090579854649</v>
+        <v>6.582315845177914</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>329.1157922588959</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="C24" t="n">
-        <v>255.9124614958566</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="D24" t="n">
-        <v>172.8024129456304</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="E24" t="n">
-        <v>89.69236439540416</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="F24" t="n">
-        <v>89.69236439540416</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="G24" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H24" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I24" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J24" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K24" t="n">
-        <v>19.5337162449361</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="L24" t="n">
-        <v>83.27101353964625</v>
+        <v>70.31961313988803</v>
       </c>
       <c r="M24" t="n">
-        <v>124.6237297579517</v>
+        <v>151.7757717239647</v>
       </c>
       <c r="N24" t="n">
-        <v>206.0798883420284</v>
+        <v>206.0798883420283</v>
       </c>
       <c r="O24" t="n">
-        <v>285.0601974311263</v>
+        <v>285.0601974311261</v>
       </c>
       <c r="P24" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Q24" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="R24" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="S24" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="T24" t="n">
-        <v>329.1157922588959</v>
+        <v>246.0057437086695</v>
       </c>
       <c r="U24" t="n">
-        <v>329.1157922588959</v>
+        <v>246.0057437086695</v>
       </c>
       <c r="V24" t="n">
-        <v>329.1157922588959</v>
+        <v>246.0057437086695</v>
       </c>
       <c r="W24" t="n">
-        <v>329.1157922588959</v>
+        <v>246.0057437086695</v>
       </c>
       <c r="X24" t="n">
-        <v>329.1157922588959</v>
+        <v>246.0057437086695</v>
       </c>
       <c r="Y24" t="n">
-        <v>329.1157922588959</v>
+        <v>162.8956951584433</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="C25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="D25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="E25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="F25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="G25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="L25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="M25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="N25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="O25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="P25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="R25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="S25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="T25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="U25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="V25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="W25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="X25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122.3739877236377</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="C26" t="n">
-        <v>122.3739877236377</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="D26" t="n">
-        <v>122.3739877236377</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="E26" t="n">
-        <v>122.3739877236377</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="F26" t="n">
-        <v>39.26393917341144</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="G26" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H26" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I26" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J26" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K26" t="n">
-        <v>8.675198464441211</v>
+        <v>8.675198464441177</v>
       </c>
       <c r="L26" t="n">
-        <v>48.17336627691706</v>
+        <v>48.17336627691698</v>
       </c>
       <c r="M26" t="n">
-        <v>123.7921258945681</v>
+        <v>123.792125894568</v>
       </c>
       <c r="N26" t="n">
-        <v>205.2482844786448</v>
+        <v>205.2482844786447</v>
       </c>
       <c r="O26" t="n">
-        <v>268.8297639574239</v>
+        <v>268.8297639574237</v>
       </c>
       <c r="P26" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="Q26" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="R26" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="S26" t="n">
-        <v>288.5940848240901</v>
+        <v>205.4840362738638</v>
       </c>
       <c r="T26" t="n">
-        <v>288.5940848240901</v>
+        <v>122.3739877236376</v>
       </c>
       <c r="U26" t="n">
-        <v>288.5940848240901</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="V26" t="n">
-        <v>288.5940848240901</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="W26" t="n">
-        <v>205.4840362738639</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="X26" t="n">
-        <v>122.3739877236377</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="Y26" t="n">
-        <v>122.3739877236377</v>
+        <v>89.6923643954041</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162.8956951584435</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="C27" t="n">
-        <v>162.8956951584435</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="D27" t="n">
-        <v>162.8956951584435</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="E27" t="n">
-        <v>162.8956951584435</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="F27" t="n">
-        <v>162.8956951584435</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="G27" t="n">
-        <v>89.69236439540416</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="H27" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I27" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J27" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K27" t="n">
-        <v>19.5337162449361</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="L27" t="n">
-        <v>83.27101353964625</v>
+        <v>70.31961313988803</v>
       </c>
       <c r="M27" t="n">
-        <v>164.727172123723</v>
+        <v>151.7757717239647</v>
       </c>
       <c r="N27" t="n">
-        <v>246.1833307077997</v>
+        <v>233.2319303080414</v>
       </c>
       <c r="O27" t="n">
-        <v>285.0601974311263</v>
+        <v>285.0601974311261</v>
       </c>
       <c r="P27" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Q27" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="R27" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="S27" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="T27" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="U27" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="V27" t="n">
-        <v>246.0057437086697</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="W27" t="n">
-        <v>162.8956951584435</v>
+        <v>246.0057437086695</v>
       </c>
       <c r="X27" t="n">
-        <v>162.8956951584435</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="Y27" t="n">
-        <v>162.8956951584435</v>
+        <v>162.8956951584433</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="C28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="D28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="E28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="F28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="G28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="H28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="I28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="J28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="K28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="L28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="M28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="N28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="O28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="P28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Q28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="R28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="S28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="T28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="U28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="V28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="W28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="X28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Y28" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.9124614958566</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="C29" t="n">
-        <v>255.9124614958566</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="D29" t="n">
-        <v>255.9124614958566</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="E29" t="n">
-        <v>172.8024129456304</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="F29" t="n">
-        <v>89.69236439540416</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="G29" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H29" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I29" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J29" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K29" t="n">
-        <v>8.675198464441211</v>
+        <v>8.675198464441177</v>
       </c>
       <c r="L29" t="n">
-        <v>48.17336627691706</v>
+        <v>48.17336627691698</v>
       </c>
       <c r="M29" t="n">
-        <v>123.7921258945681</v>
+        <v>123.792125894568</v>
       </c>
       <c r="N29" t="n">
-        <v>205.2482844786448</v>
+        <v>205.2482844786447</v>
       </c>
       <c r="O29" t="n">
-        <v>268.8297639574239</v>
+        <v>268.8297639574237</v>
       </c>
       <c r="P29" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="Q29" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="R29" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="S29" t="n">
-        <v>255.9124614958566</v>
+        <v>205.4840362738638</v>
       </c>
       <c r="T29" t="n">
-        <v>255.9124614958566</v>
+        <v>122.3739877236376</v>
       </c>
       <c r="U29" t="n">
-        <v>255.9124614958566</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="V29" t="n">
-        <v>255.9124614958566</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="W29" t="n">
-        <v>255.9124614958566</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="X29" t="n">
-        <v>255.9124614958566</v>
+        <v>39.26393917341144</v>
       </c>
       <c r="Y29" t="n">
-        <v>255.9124614958566</v>
+        <v>39.26393917341144</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.582315845177918</v>
+        <v>142.0108895471886</v>
       </c>
       <c r="C30" t="n">
-        <v>6.582315845177918</v>
+        <v>142.0108895471886</v>
       </c>
       <c r="D30" t="n">
-        <v>6.582315845177918</v>
+        <v>58.9008409969624</v>
       </c>
       <c r="E30" t="n">
-        <v>6.582315845177918</v>
+        <v>58.9008409969624</v>
       </c>
       <c r="F30" t="n">
-        <v>6.582315845177918</v>
+        <v>58.9008409969624</v>
       </c>
       <c r="G30" t="n">
-        <v>6.582315845177918</v>
+        <v>58.9008409969624</v>
       </c>
       <c r="H30" t="n">
-        <v>6.582315845177918</v>
+        <v>58.9008409969624</v>
       </c>
       <c r="I30" t="n">
-        <v>6.582315845177918</v>
+        <v>45.50631714927847</v>
       </c>
       <c r="J30" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K30" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="L30" t="n">
-        <v>43.16757117387496</v>
+        <v>70.31961313988803</v>
       </c>
       <c r="M30" t="n">
-        <v>124.6237297579517</v>
+        <v>124.6237297579516</v>
       </c>
       <c r="N30" t="n">
-        <v>206.0798883420284</v>
+        <v>206.0798883420283</v>
       </c>
       <c r="O30" t="n">
-        <v>285.0601974311263</v>
+        <v>285.0601974311261</v>
       </c>
       <c r="P30" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Q30" t="n">
-        <v>308.2309866476411</v>
+        <v>308.2309866476409</v>
       </c>
       <c r="R30" t="n">
-        <v>225.1209380974149</v>
+        <v>225.1209380974148</v>
       </c>
       <c r="S30" t="n">
-        <v>225.1209380974149</v>
+        <v>225.1209380974148</v>
       </c>
       <c r="T30" t="n">
-        <v>225.1209380974149</v>
+        <v>225.1209380974148</v>
       </c>
       <c r="U30" t="n">
-        <v>225.1209380974149</v>
+        <v>225.1209380974148</v>
       </c>
       <c r="V30" t="n">
-        <v>225.1209380974149</v>
+        <v>225.1209380974148</v>
       </c>
       <c r="W30" t="n">
-        <v>142.0108895471887</v>
+        <v>225.1209380974148</v>
       </c>
       <c r="X30" t="n">
-        <v>58.90084099696246</v>
+        <v>225.1209380974148</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.582315845177918</v>
+        <v>225.1209380974148</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="C31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="D31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="E31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="F31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="G31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="H31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="I31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="J31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="K31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="L31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="M31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="N31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="O31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="P31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Q31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="R31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="S31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="T31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="U31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="V31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="W31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="X31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Y31" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.582315845177918</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="C32" t="n">
-        <v>6.582315845177918</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="D32" t="n">
-        <v>6.582315845177918</v>
+        <v>89.6923643954041</v>
       </c>
       <c r="E32" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="F32" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="G32" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H32" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I32" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J32" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K32" t="n">
-        <v>8.675198464441211</v>
+        <v>8.675198464441177</v>
       </c>
       <c r="L32" t="n">
-        <v>48.17336627691706</v>
+        <v>48.17336627691698</v>
       </c>
       <c r="M32" t="n">
-        <v>123.7921258945681</v>
+        <v>123.792125894568</v>
       </c>
       <c r="N32" t="n">
-        <v>205.2482844786448</v>
+        <v>205.2482844786447</v>
       </c>
       <c r="O32" t="n">
-        <v>268.8297639574239</v>
+        <v>268.8297639574237</v>
       </c>
       <c r="P32" t="n">
-        <v>288.5940848240901</v>
+        <v>288.59408482409</v>
       </c>
       <c r="Q32" t="n">
-        <v>288.5940848240901</v>
+        <v>255.9124614958565</v>
       </c>
       <c r="R32" t="n">
-        <v>288.5940848240901</v>
+        <v>255.9124614958565</v>
       </c>
       <c r="S32" t="n">
-        <v>288.5940848240901</v>
+        <v>255.9124614958565</v>
       </c>
       <c r="T32" t="n">
-        <v>288.5940848240901</v>
+        <v>255.9124614958565</v>
       </c>
       <c r="U32" t="n">
-        <v>288.5940848240901</v>
+        <v>255.9124614958565</v>
       </c>
       <c r="V32" t="n">
-        <v>288.5940848240901</v>
+        <v>255.9124614958565</v>
       </c>
       <c r="W32" t="n">
-        <v>205.4840362738639</v>
+        <v>255.9124614958565</v>
       </c>
       <c r="X32" t="n">
-        <v>122.3739877236377</v>
+        <v>172.8024129456303</v>
       </c>
       <c r="Y32" t="n">
-        <v>39.26393917341144</v>
+        <v>89.6923643954041</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>172.8024129456304</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="C33" t="n">
-        <v>89.69236439540416</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="D33" t="n">
-        <v>6.582315845177918</v>
+        <v>79.78564660821716</v>
       </c>
       <c r="E33" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="F33" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="G33" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H33" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I33" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J33" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K33" t="n">
-        <v>19.5337162449361</v>
+        <v>19.53371624493609</v>
       </c>
       <c r="L33" t="n">
-        <v>83.27101353964625</v>
+        <v>83.27101353964622</v>
       </c>
       <c r="M33" t="n">
-        <v>124.6237297579517</v>
+        <v>164.7271721237229</v>
       </c>
       <c r="N33" t="n">
-        <v>206.0798883420284</v>
+        <v>206.0798883420283</v>
       </c>
       <c r="O33" t="n">
-        <v>285.0601974311263</v>
+        <v>285.0601974311261</v>
       </c>
       <c r="P33" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="Q33" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="R33" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="S33" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="T33" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="U33" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="V33" t="n">
-        <v>329.1157922588959</v>
+        <v>329.1157922588957</v>
       </c>
       <c r="W33" t="n">
-        <v>255.9124614958566</v>
+        <v>246.0057437086695</v>
       </c>
       <c r="X33" t="n">
-        <v>172.8024129456304</v>
+        <v>162.8956951584433</v>
       </c>
       <c r="Y33" t="n">
-        <v>172.8024129456304</v>
+        <v>162.8956951584433</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="C34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="D34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="E34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="F34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="G34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="H34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="I34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="J34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="K34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="L34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="M34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="N34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="O34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="P34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="R34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="S34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="T34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="U34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="V34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="W34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="X34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.582315845177918</v>
+        <v>6.582315845177914</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>257.6017541797622</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="C35" t="n">
-        <v>257.6017541797622</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="D35" t="n">
-        <v>257.6017541797622</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="E35" t="n">
-        <v>257.6017541797622</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="F35" t="n">
-        <v>200.3048791591727</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="G35" t="n">
-        <v>135.2539311339802</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="H35" t="n">
-        <v>70.20298310878772</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="I35" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="J35" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="K35" t="n">
-        <v>7.244917702858629</v>
+        <v>7.244917702858479</v>
       </c>
       <c r="L35" t="n">
-        <v>46.74308551533454</v>
+        <v>46.74308551533428</v>
       </c>
       <c r="M35" t="n">
-        <v>110.4995196748257</v>
+        <v>110.4995196748251</v>
       </c>
       <c r="N35" t="n">
-        <v>174.2559538343169</v>
+        <v>174.2559538343158</v>
       </c>
       <c r="O35" t="n">
-        <v>237.837433313096</v>
+        <v>237.8374333130949</v>
       </c>
       <c r="P35" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="Q35" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="R35" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="S35" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="T35" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="U35" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="V35" t="n">
-        <v>257.6017541797622</v>
+        <v>200.3048791591715</v>
       </c>
       <c r="W35" t="n">
-        <v>257.6017541797622</v>
+        <v>200.3048791591715</v>
       </c>
       <c r="X35" t="n">
-        <v>257.6017541797622</v>
+        <v>135.2539311339794</v>
       </c>
       <c r="Y35" t="n">
-        <v>257.6017541797622</v>
+        <v>70.20298310878732</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>257.6017541797622</v>
+        <v>70.20298310878732</v>
       </c>
       <c r="C36" t="n">
-        <v>257.6017541797622</v>
+        <v>70.20298310878732</v>
       </c>
       <c r="D36" t="n">
-        <v>192.5508061545697</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="E36" t="n">
-        <v>192.5508061545697</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="F36" t="n">
-        <v>135.2539311339802</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="G36" t="n">
-        <v>70.20298310878772</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="H36" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="I36" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="J36" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="K36" t="n">
-        <v>18.10343548335342</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="L36" t="n">
-        <v>81.84073277806357</v>
+        <v>22.27685687351875</v>
       </c>
       <c r="M36" t="n">
-        <v>86.03329103301026</v>
+        <v>86.03329103300953</v>
       </c>
       <c r="N36" t="n">
-        <v>149.7897251925014</v>
+        <v>149.7897251925003</v>
       </c>
       <c r="O36" t="n">
-        <v>213.5461593519926</v>
+        <v>213.5461593519911</v>
       </c>
       <c r="P36" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="Q36" t="n">
-        <v>257.6017541797622</v>
+        <v>236.716948568506</v>
       </c>
       <c r="R36" t="n">
-        <v>257.6017541797622</v>
+        <v>236.716948568506</v>
       </c>
       <c r="S36" t="n">
-        <v>257.6017541797622</v>
+        <v>236.716948568506</v>
       </c>
       <c r="T36" t="n">
-        <v>257.6017541797622</v>
+        <v>236.716948568506</v>
       </c>
       <c r="U36" t="n">
-        <v>257.6017541797622</v>
+        <v>236.716948568506</v>
       </c>
       <c r="V36" t="n">
-        <v>257.6017541797622</v>
+        <v>236.716948568506</v>
       </c>
       <c r="W36" t="n">
-        <v>257.6017541797622</v>
+        <v>171.6660005433138</v>
       </c>
       <c r="X36" t="n">
-        <v>257.6017541797622</v>
+        <v>106.6150525181217</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.6017541797622</v>
+        <v>70.20298310878732</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="C37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="D37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="E37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="F37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="G37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="H37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="I37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="J37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="K37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="L37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="M37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="N37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="O37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="P37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="R37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="S37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="T37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="U37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="V37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="W37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="X37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797607</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.152035083595244</v>
+        <v>135.2539311339794</v>
       </c>
       <c r="C38" t="n">
-        <v>5.152035083595244</v>
+        <v>135.2539311339794</v>
       </c>
       <c r="D38" t="n">
-        <v>5.152035083595244</v>
+        <v>70.20298310878732</v>
       </c>
       <c r="E38" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="F38" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="G38" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="H38" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="I38" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="J38" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="K38" t="n">
-        <v>7.244917702858537</v>
+        <v>7.244917702858479</v>
       </c>
       <c r="L38" t="n">
-        <v>46.74308551533439</v>
+        <v>46.74308551533428</v>
       </c>
       <c r="M38" t="n">
-        <v>110.4995196748255</v>
+        <v>110.4995196748251</v>
       </c>
       <c r="N38" t="n">
-        <v>174.2559538343167</v>
+        <v>174.2559538343158</v>
       </c>
       <c r="O38" t="n">
-        <v>237.8374333130958</v>
+        <v>237.8374333130949</v>
       </c>
       <c r="P38" t="n">
-        <v>257.6017541797621</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="Q38" t="n">
-        <v>257.6017541797621</v>
+        <v>257.6017541797611</v>
       </c>
       <c r="R38" t="n">
-        <v>257.6017541797621</v>
+        <v>200.3048791591715</v>
       </c>
       <c r="S38" t="n">
-        <v>257.6017541797621</v>
+        <v>200.3048791591715</v>
       </c>
       <c r="T38" t="n">
-        <v>192.5508061545696</v>
+        <v>200.3048791591715</v>
       </c>
       <c r="U38" t="n">
-        <v>127.4998581293771</v>
+        <v>200.3048791591715</v>
       </c>
       <c r="V38" t="n">
-        <v>127.4998581293771</v>
+        <v>135.2539311339794</v>
       </c>
       <c r="W38" t="n">
-        <v>62.44891010418459</v>
+        <v>135.2539311339794</v>
       </c>
       <c r="X38" t="n">
-        <v>5.152035083595244</v>
+        <v>135.2539311339794</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.152035083595244</v>
+        <v>135.2539311339794</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>257.6017541797622</v>
+        <v>127.4998581293765</v>
       </c>
       <c r="C39" t="n">
-        <v>257.6017541797622</v>
+        <v>127.4998581293765</v>
       </c>
       <c r="D39" t="n">
-        <v>200.3048791591727</v>
+        <v>127.4998581293765</v>
       </c>
       <c r="E39" t="n">
-        <v>135.2539311339802</v>
+        <v>127.4998581293765</v>
       </c>
       <c r="F39" t="n">
-        <v>70.20298310878772</v>
+        <v>62.44891010418442</v>
       </c>
       <c r="G39" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="H39" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="I39" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="J39" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="K39" t="n">
-        <v>18.10343548335342</v>
+        <v>18.10343548335339</v>
       </c>
       <c r="L39" t="n">
-        <v>81.84073277806357</v>
+        <v>81.84073277806351</v>
       </c>
       <c r="M39" t="n">
-        <v>145.5971669375547</v>
+        <v>145.5971669375543</v>
       </c>
       <c r="N39" t="n">
-        <v>209.3536010970459</v>
+        <v>209.3536010970451</v>
       </c>
       <c r="O39" t="n">
-        <v>213.5461593519926</v>
+        <v>213.5461593519911</v>
       </c>
       <c r="P39" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="Q39" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="R39" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="S39" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797607</v>
       </c>
       <c r="T39" t="n">
-        <v>257.6017541797622</v>
+        <v>192.5508061545686</v>
       </c>
       <c r="U39" t="n">
-        <v>257.6017541797622</v>
+        <v>192.5508061545686</v>
       </c>
       <c r="V39" t="n">
-        <v>257.6017541797622</v>
+        <v>127.4998581293765</v>
       </c>
       <c r="W39" t="n">
-        <v>257.6017541797622</v>
+        <v>127.4998581293765</v>
       </c>
       <c r="X39" t="n">
-        <v>257.6017541797622</v>
+        <v>127.4998581293765</v>
       </c>
       <c r="Y39" t="n">
-        <v>257.6017541797622</v>
+        <v>127.4998581293765</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="C40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="D40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="E40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="F40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="G40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="H40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="I40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="J40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="K40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="L40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="M40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="N40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="O40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="P40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="R40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="S40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="T40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="U40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="V40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="W40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="X40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595215</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="C41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="D41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="E41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="F41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="G41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="H41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="I41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="J41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="K41" t="n">
-        <v>7.244917702858537</v>
+        <v>7.244917702858558</v>
       </c>
       <c r="L41" t="n">
-        <v>46.74308551533439</v>
+        <v>46.74308551533436</v>
       </c>
       <c r="M41" t="n">
-        <v>110.4995196748255</v>
+        <v>110.4995196748253</v>
       </c>
       <c r="N41" t="n">
-        <v>174.2559538343167</v>
+        <v>174.2559538343164</v>
       </c>
       <c r="O41" t="n">
-        <v>237.8374333130958</v>
+        <v>237.8374333130955</v>
       </c>
       <c r="P41" t="n">
-        <v>257.6017541797621</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="Q41" t="n">
-        <v>257.6017541797621</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="R41" t="n">
-        <v>200.3048791591727</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="S41" t="n">
-        <v>135.2539311339802</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="T41" t="n">
-        <v>70.20298310878772</v>
+        <v>200.3048791591723</v>
       </c>
       <c r="U41" t="n">
-        <v>5.152035083595244</v>
+        <v>135.25393113398</v>
       </c>
       <c r="V41" t="n">
-        <v>5.152035083595244</v>
+        <v>70.20298310878759</v>
       </c>
       <c r="W41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="X41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>127.4998581293772</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="C42" t="n">
-        <v>127.4998581293772</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="D42" t="n">
-        <v>127.4998581293772</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="E42" t="n">
-        <v>70.20298310878772</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="F42" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="G42" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="H42" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="I42" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="J42" t="n">
-        <v>5.152035083595244</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="K42" t="n">
-        <v>5.152035083595244</v>
+        <v>18.10343548335342</v>
       </c>
       <c r="L42" t="n">
-        <v>68.8893323783054</v>
+        <v>81.84073277806354</v>
       </c>
       <c r="M42" t="n">
-        <v>132.6457665377965</v>
+        <v>145.5971669375546</v>
       </c>
       <c r="N42" t="n">
-        <v>196.4022006972877</v>
+        <v>149.7897251925011</v>
       </c>
       <c r="O42" t="n">
-        <v>257.6017541797622</v>
+        <v>213.5461593519921</v>
       </c>
       <c r="P42" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="Q42" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="R42" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="S42" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="T42" t="n">
-        <v>257.6017541797622</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="U42" t="n">
-        <v>257.6017541797622</v>
+        <v>192.5508061545694</v>
       </c>
       <c r="V42" t="n">
-        <v>257.6017541797622</v>
+        <v>135.25393113398</v>
       </c>
       <c r="W42" t="n">
-        <v>192.5508061545697</v>
+        <v>70.20298310878759</v>
       </c>
       <c r="X42" t="n">
-        <v>192.5508061545697</v>
+        <v>5.152035083595234</v>
       </c>
       <c r="Y42" t="n">
-        <v>127.4998581293772</v>
+        <v>5.152035083595234</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="C43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="D43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="E43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="F43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="G43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="H43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="I43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="J43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="K43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="L43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="M43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="N43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="O43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="P43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="R43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="S43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="T43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="U43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="V43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="W43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="X43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.152035083595244</v>
+        <v>257.6017541797617</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.193463329400492</v>
+        <v>110.089001950625</v>
       </c>
       <c r="C44" t="n">
-        <v>4.193463329400492</v>
+        <v>110.089001950625</v>
       </c>
       <c r="D44" t="n">
-        <v>4.193463329400492</v>
+        <v>110.089001950625</v>
       </c>
       <c r="E44" t="n">
-        <v>4.193463329400492</v>
+        <v>110.089001950625</v>
       </c>
       <c r="F44" t="n">
-        <v>4.193463329400492</v>
+        <v>57.14123264001272</v>
       </c>
       <c r="G44" t="n">
-        <v>4.193463329400492</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="H44" t="n">
-        <v>4.193463329400492</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="I44" t="n">
-        <v>4.193463329400492</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="J44" t="n">
-        <v>4.193463329400492</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="K44" t="n">
-        <v>4.193463329400492</v>
+        <v>6.286345948663754</v>
       </c>
       <c r="L44" t="n">
-        <v>43.69163114187635</v>
+        <v>45.78451376113955</v>
       </c>
       <c r="M44" t="n">
-        <v>95.58573984320743</v>
+        <v>97.6786224624706</v>
       </c>
       <c r="N44" t="n">
-        <v>147.4798485445385</v>
+        <v>149.5727311638016</v>
       </c>
       <c r="O44" t="n">
-        <v>189.9088456033583</v>
+        <v>189.9088456033582</v>
       </c>
       <c r="P44" t="n">
-        <v>209.6731664700246</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.6731664700246</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="R44" t="n">
-        <v>163.0367712612373</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="S44" t="n">
+        <v>209.6731664700245</v>
+      </c>
+      <c r="T44" t="n">
+        <v>209.6731664700245</v>
+      </c>
+      <c r="U44" t="n">
+        <v>156.7253971594122</v>
+      </c>
+      <c r="V44" t="n">
+        <v>156.7253971594122</v>
+      </c>
+      <c r="W44" t="n">
         <v>110.089001950625</v>
       </c>
-      <c r="T44" t="n">
+      <c r="X44" t="n">
         <v>110.089001950625</v>
       </c>
-      <c r="U44" t="n">
+      <c r="Y44" t="n">
         <v>110.089001950625</v>
-      </c>
-      <c r="V44" t="n">
-        <v>57.14123264001277</v>
-      </c>
-      <c r="W44" t="n">
-        <v>4.193463329400492</v>
-      </c>
-      <c r="X44" t="n">
-        <v>4.193463329400492</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>4.193463329400492</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.89282223754529</v>
+        <v>57.14123264001272</v>
       </c>
       <c r="C45" t="n">
-        <v>82.89282223754529</v>
+        <v>57.14123264001272</v>
       </c>
       <c r="D45" t="n">
-        <v>82.89282223754529</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="E45" t="n">
-        <v>82.89282223754529</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="F45" t="n">
-        <v>82.89282223754529</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="G45" t="n">
-        <v>82.89282223754529</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="H45" t="n">
-        <v>57.14123264001277</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="I45" t="n">
-        <v>4.193463329400492</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="J45" t="n">
-        <v>4.193463329400492</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="K45" t="n">
-        <v>17.14486372915867</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="L45" t="n">
-        <v>17.14486372915867</v>
+        <v>56.08757203073154</v>
       </c>
       <c r="M45" t="n">
-        <v>61.82935423959278</v>
+        <v>107.9816807320626</v>
       </c>
       <c r="N45" t="n">
-        <v>113.7234629409239</v>
+        <v>159.8757894333936</v>
       </c>
       <c r="O45" t="n">
-        <v>165.6175716422549</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="P45" t="n">
-        <v>209.6731664700246</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="Q45" t="n">
-        <v>188.7883608587698</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="R45" t="n">
-        <v>135.8405915481576</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="S45" t="n">
-        <v>82.89282223754529</v>
+        <v>209.6731664700245</v>
       </c>
       <c r="T45" t="n">
-        <v>82.89282223754529</v>
+        <v>163.0367712612372</v>
       </c>
       <c r="U45" t="n">
-        <v>82.89282223754529</v>
+        <v>110.089001950625</v>
       </c>
       <c r="V45" t="n">
-        <v>82.89282223754529</v>
+        <v>57.14123264001272</v>
       </c>
       <c r="W45" t="n">
-        <v>82.89282223754529</v>
+        <v>57.14123264001272</v>
       </c>
       <c r="X45" t="n">
-        <v>82.89282223754529</v>
+        <v>57.14123264001272</v>
       </c>
       <c r="Y45" t="n">
-        <v>82.89282223754529</v>
+        <v>57.14123264001272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="C46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="D46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="E46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="F46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="G46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="H46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="I46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="J46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="K46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="L46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="M46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="N46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="O46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="P46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="Q46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="R46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="S46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="T46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="U46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="V46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="W46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="X46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.6731664700246</v>
+        <v>4.193463329400489</v>
       </c>
     </row>
   </sheetData>
@@ -22568,7 +22568,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K2" t="n">
         <v>56.54227989916996</v>
@@ -22577,13 +22577,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P2" t="n">
         <v>46.34579576917247</v>
@@ -22644,10 +22644,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K3" t="n">
         <v>26.75787480980772</v>
@@ -22726,7 +22726,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K4" t="n">
         <v>62.00809140979796</v>
@@ -22741,10 +22741,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q4" t="n">
         <v>103.2119976362414</v>
@@ -22811,10 +22811,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L5" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09656339947139259</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -22969,13 +22969,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L7" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M7" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N7" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O7" t="n">
         <v>55.31770395088348</v>
@@ -23057,13 +23057,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P8" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R8" t="n">
         <v>133.1811664518765</v>
@@ -23206,10 +23206,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L10" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M10" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N10" t="n">
         <v>37.63776203285606</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.3334031185403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>300.8724532260673</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>382.9376661254879</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5559032127445</v>
+        <v>349.1554646678039</v>
       </c>
       <c r="H11" t="n">
-        <v>321.5850353164092</v>
+        <v>257.1845967714686</v>
       </c>
       <c r="I11" t="n">
-        <v>143.1310601274914</v>
+        <v>78.73062158255078</v>
       </c>
       <c r="J11" t="n">
-        <v>32.78552665416015</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.66723710216414</v>
+        <v>33.66723710216405</v>
       </c>
       <c r="R11" t="n">
-        <v>105.8559575665872</v>
+        <v>105.8559575665871</v>
       </c>
       <c r="S11" t="n">
         <v>169.214082920519</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>313.0071944080856</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.8375001111133</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>126.8800674140597</v>
       </c>
       <c r="G12" t="n">
-        <v>136.4088784135872</v>
+        <v>72.0084398686466</v>
       </c>
       <c r="H12" t="n">
-        <v>103.2088015756596</v>
+        <v>38.80836303071901</v>
       </c>
       <c r="I12" t="n">
-        <v>67.34293182217556</v>
+        <v>2.942493277234973</v>
       </c>
       <c r="J12" t="n">
-        <v>38.53476129105955</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23379,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.67595755514225</v>
+        <v>20.6759575551422</v>
       </c>
       <c r="R12" t="n">
-        <v>23.24947708714048</v>
+        <v>87.64991563208078</v>
       </c>
       <c r="S12" t="n">
-        <v>89.92222771391836</v>
+        <v>154.3226662588586</v>
       </c>
       <c r="T12" t="n">
-        <v>131.997040102057</v>
+        <v>196.3974786469973</v>
       </c>
       <c r="U12" t="n">
-        <v>169.1559864191688</v>
+        <v>225.8798926895522</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23437,28 +23437,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J13" t="n">
-        <v>71.59704144823459</v>
+        <v>71.59704144823456</v>
       </c>
       <c r="K13" t="n">
-        <v>37.97670213516902</v>
+        <v>37.97670213516899</v>
       </c>
       <c r="L13" t="n">
-        <v>18.38922734521465</v>
+        <v>18.38922734521461</v>
       </c>
       <c r="M13" t="n">
-        <v>16.09766691178172</v>
+        <v>16.09766691178167</v>
       </c>
       <c r="N13" t="n">
-        <v>7.778005518181288</v>
+        <v>7.778005518181246</v>
       </c>
       <c r="O13" t="n">
-        <v>27.70251863667245</v>
+        <v>27.70251863667241</v>
       </c>
       <c r="P13" t="n">
-        <v>42.95880674910741</v>
+        <v>42.95880674910737</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.89172168877606</v>
+        <v>85.89172168877604</v>
       </c>
       <c r="R13" t="n">
         <v>142.0612469209158</v>
@@ -23492,31 +23492,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>326.0099353930971</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>290.2826030757426</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>317.5299315273214</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5559032127445</v>
+        <v>349.1554646678039</v>
       </c>
       <c r="H14" t="n">
-        <v>321.5850353164092</v>
+        <v>257.1845967714686</v>
       </c>
       <c r="I14" t="n">
-        <v>143.1310601274914</v>
+        <v>78.73062158255081</v>
       </c>
       <c r="J14" t="n">
-        <v>32.78552665416012</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.66723710216411</v>
+        <v>9.728857485940523</v>
       </c>
       <c r="R14" t="n">
         <v>105.8559575665871</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>305.3306621335287</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>126.8800674140598</v>
       </c>
       <c r="G15" t="n">
-        <v>136.4088784135872</v>
+        <v>72.00843986864663</v>
       </c>
       <c r="H15" t="n">
-        <v>103.2088015756596</v>
+        <v>38.80836303071904</v>
       </c>
       <c r="I15" t="n">
-        <v>67.34293182217556</v>
+        <v>2.942493277235002</v>
       </c>
       <c r="J15" t="n">
-        <v>38.53476129105954</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23616,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>20.6759575551422</v>
       </c>
       <c r="R15" t="n">
-        <v>51.60196691683957</v>
+        <v>87.64991563208078</v>
       </c>
       <c r="S15" t="n">
-        <v>89.92222771391832</v>
+        <v>154.3226662588586</v>
       </c>
       <c r="T15" t="n">
-        <v>131.997040102057</v>
+        <v>196.3974786469973</v>
       </c>
       <c r="U15" t="n">
-        <v>161.4794541446119</v>
+        <v>225.8798926895522</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23674,28 +23674,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J16" t="n">
-        <v>71.59704144823458</v>
+        <v>71.59704144823456</v>
       </c>
       <c r="K16" t="n">
-        <v>37.97670213516901</v>
+        <v>37.97670213516899</v>
       </c>
       <c r="L16" t="n">
-        <v>18.38922734521464</v>
+        <v>18.38922734521461</v>
       </c>
       <c r="M16" t="n">
-        <v>16.0976669117817</v>
+        <v>16.09766691178167</v>
       </c>
       <c r="N16" t="n">
-        <v>7.778005518181274</v>
+        <v>7.778005518181246</v>
       </c>
       <c r="O16" t="n">
-        <v>27.70251863667244</v>
+        <v>27.70251863667241</v>
       </c>
       <c r="P16" t="n">
-        <v>42.9588067491074</v>
+        <v>42.95880674910737</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.89172168877606</v>
+        <v>85.89172168877604</v>
       </c>
       <c r="R16" t="n">
         <v>142.0612469209158</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>318.3334031185402</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,16 +23744,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.5559032127445</v>
+        <v>358.8843221537447</v>
       </c>
       <c r="H17" t="n">
-        <v>321.5850353164092</v>
+        <v>257.1845967714688</v>
       </c>
       <c r="I17" t="n">
-        <v>143.1310601274914</v>
+        <v>78.730621582551</v>
       </c>
       <c r="J17" t="n">
-        <v>32.78552665416009</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.66723710216408</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>105.8559575665871</v>
@@ -23789,16 +23789,16 @@
         <v>251.2059061636452</v>
       </c>
       <c r="V17" t="n">
-        <v>271.0283521997512</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>305.3306621335287</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>321.8375001111132</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23823,16 +23823,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.4088784135872</v>
+        <v>72.00843986864676</v>
       </c>
       <c r="H18" t="n">
-        <v>103.2088015756596</v>
+        <v>38.80836303071916</v>
       </c>
       <c r="I18" t="n">
         <v>67.34293182217556</v>
       </c>
       <c r="J18" t="n">
-        <v>38.53476129105952</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.24947708714043</v>
+        <v>25.73628966295863</v>
       </c>
       <c r="S18" t="n">
         <v>154.3226662588587</v>
       </c>
       <c r="T18" t="n">
-        <v>160.3495299317561</v>
+        <v>196.3974786469973</v>
       </c>
       <c r="U18" t="n">
-        <v>161.4794541446119</v>
+        <v>225.8798926895522</v>
       </c>
       <c r="V18" t="n">
-        <v>168.4001486044849</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23911,28 +23911,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J19" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K19" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L19" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M19" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N19" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O19" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P19" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R19" t="n">
         <v>142.0612469209158</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>288.8903062986328</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23990,7 +23990,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J20" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.66723710216408</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R20" t="n">
-        <v>61.59108767134978</v>
+        <v>29.47337209421238</v>
       </c>
       <c r="S20" t="n">
-        <v>169.214082920519</v>
+        <v>92.83149744814426</v>
       </c>
       <c r="T20" t="n">
-        <v>215.4490824054164</v>
+        <v>139.0664969330417</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2059061636452</v>
+        <v>206.9410362684081</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>272.8583832450382</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>293.3485152060942</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>105.4307177042481</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>81.26249498302619</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>68.68662692100912</v>
       </c>
       <c r="G21" t="n">
-        <v>136.4088784135872</v>
+        <v>60.02629294121243</v>
       </c>
       <c r="H21" t="n">
-        <v>35.93102029159195</v>
+        <v>103.2088015756596</v>
       </c>
       <c r="I21" t="n">
         <v>67.34293182217556</v>
       </c>
       <c r="J21" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24090,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R21" t="n">
         <v>87.64991563208079</v>
       </c>
       <c r="S21" t="n">
-        <v>77.94008078648392</v>
+        <v>154.3226662588587</v>
       </c>
       <c r="T21" t="n">
         <v>196.3974786469973</v>
       </c>
       <c r="U21" t="n">
-        <v>149.4973072171775</v>
+        <v>225.8798926895522</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>129.3903997311027</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24148,28 +24148,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J22" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K22" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L22" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M22" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N22" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O22" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P22" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R22" t="n">
         <v>142.0612469209158</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2769551480205</v>
+        <v>413.5559032127445</v>
       </c>
       <c r="H23" t="n">
         <v>321.5850353164092</v>
@@ -24227,7 +24227,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R23" t="n">
         <v>105.8559575665871</v>
       </c>
       <c r="S23" t="n">
-        <v>121.033091517168</v>
+        <v>169.214082920519</v>
       </c>
       <c r="T23" t="n">
-        <v>133.1701343406924</v>
+        <v>215.4490824054164</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2059061636452</v>
+        <v>168.9269580989213</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>245.473310405411</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>266.9620206526891</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>353.8831315611024</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24285,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>100.2372015329069</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>65.16611749991478</v>
+        <v>74.97376810922991</v>
       </c>
       <c r="E24" t="n">
-        <v>75.36613239067697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>54.12993034886321</v>
+        <v>54.12993034886327</v>
       </c>
       <c r="H24" t="n">
         <v>103.2088015756596</v>
@@ -24306,7 +24306,7 @@
         <v>67.34293182217556</v>
       </c>
       <c r="J24" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R24" t="n">
         <v>87.64991563208079</v>
@@ -24336,7 +24336,7 @@
         <v>154.3226662588587</v>
       </c>
       <c r="T24" t="n">
-        <v>196.3974786469973</v>
+        <v>114.1185305822734</v>
       </c>
       <c r="U24" t="n">
         <v>225.8798926895522</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>123.4037477125804</v>
       </c>
     </row>
     <row r="25">
@@ -24385,28 +24385,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J25" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K25" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L25" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M25" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N25" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O25" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P25" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R25" t="n">
         <v>142.0612469209158</v>
@@ -24446,16 +24446,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>272.404093555959</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>324.5970976769875</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>381.2010961177933</v>
+        <v>413.5559032127445</v>
       </c>
       <c r="H26" t="n">
         <v>321.5850353164092</v>
@@ -24464,7 +24464,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J26" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.66723710216408</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R26" t="n">
         <v>105.8559575665871</v>
       </c>
       <c r="S26" t="n">
-        <v>169.214082920519</v>
+        <v>86.9351348557951</v>
       </c>
       <c r="T26" t="n">
-        <v>215.4490824054164</v>
+        <v>133.1701343406925</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2059061636452</v>
+        <v>218.8510990686941</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>266.962020652689</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>287.4521526137451</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>85.1737829999921</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>63.93758095817829</v>
+        <v>136.4088784135872</v>
       </c>
       <c r="H27" t="n">
-        <v>20.92985351093562</v>
+        <v>20.92985351093567</v>
       </c>
       <c r="I27" t="n">
         <v>67.34293182217556</v>
       </c>
       <c r="J27" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R27" t="n">
         <v>87.64991563208079</v>
@@ -24579,13 +24579,13 @@
         <v>225.8798926895522</v>
       </c>
       <c r="V27" t="n">
-        <v>150.5216390847013</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>169.4160350961956</v>
+        <v>169.4160350961957</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>123.4940371387536</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24622,28 +24622,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J28" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K28" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L28" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M28" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N28" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O28" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P28" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R28" t="n">
         <v>142.0612469209158</v>
@@ -24683,16 +24683,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>322.3282345257318</v>
       </c>
       <c r="E29" t="n">
-        <v>299.6514220075378</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>324.5970976769875</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2769551480205</v>
+        <v>413.5559032127445</v>
       </c>
       <c r="H29" t="n">
         <v>321.5850353164092</v>
@@ -24701,7 +24701,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J29" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24722,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.66723710216408</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R29" t="n">
         <v>105.8559575665871</v>
       </c>
       <c r="S29" t="n">
-        <v>136.8592758255678</v>
+        <v>86.9351348557951</v>
       </c>
       <c r="T29" t="n">
-        <v>215.4490824054164</v>
+        <v>133.1701343406925</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2059061636452</v>
+        <v>168.9269580989213</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>84.25423558514342</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>65.16611749991483</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24777,10 +24777,10 @@
         <v>103.2088015756596</v>
       </c>
       <c r="I30" t="n">
-        <v>67.34293182217556</v>
+        <v>54.08235321296846</v>
       </c>
       <c r="J30" t="n">
-        <v>38.53476129105952</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.370967567356814</v>
+        <v>5.370967567356871</v>
       </c>
       <c r="S30" t="n">
         <v>154.3226662588587</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>169.4160350961956</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>123.4940371387535</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>153.8873558770377</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24859,28 +24859,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J31" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K31" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L31" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M31" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N31" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O31" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P31" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R31" t="n">
         <v>142.0612469209158</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>350.3790345685294</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>299.6514220075379</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J32" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.66723710216408</v>
+        <v>1.312430007212932</v>
       </c>
       <c r="R32" t="n">
         <v>105.8559575665871</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>266.962020652689</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>287.4521526137451</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.9589905913296</v>
+        <v>303.9589905913297</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>90.42955092359176</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>65.16611749991478</v>
+        <v>65.16611749991483</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>85.1737829999921</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>67.34293182217556</v>
       </c>
       <c r="J33" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,7 +25038,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R33" t="n">
         <v>87.64991563208079</v>
@@ -25056,10 +25056,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>179.2236857055107</v>
+        <v>169.4160350961957</v>
       </c>
       <c r="X33" t="n">
-        <v>123.4940371387535</v>
+        <v>123.4940371387536</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25096,28 +25096,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J34" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K34" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L34" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M34" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N34" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O34" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P34" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R34" t="n">
         <v>142.0612469209158</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>318.3334031185404</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,19 +25163,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>350.1521394713278</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>349.1554646678039</v>
+        <v>413.5559032127445</v>
       </c>
       <c r="H35" t="n">
-        <v>257.1845967714686</v>
+        <v>321.5850353164092</v>
       </c>
       <c r="I35" t="n">
-        <v>78.73062158255084</v>
+        <v>143.1310601274914</v>
       </c>
       <c r="J35" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.66723710216408</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R35" t="n">
         <v>105.8559575665871</v>
@@ -25211,16 +25211,16 @@
         <v>251.2059061636452</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>271.0283521997512</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>305.3306621335288</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>321.8375001111134</v>
       </c>
     </row>
     <row r="36">
@@ -25236,25 +25236,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>83.0446270196982</v>
+        <v>83.04462701969857</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>88.34530612300024</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>72.00843986864663</v>
+        <v>136.4088784135872</v>
       </c>
       <c r="H36" t="n">
-        <v>38.80836303071904</v>
+        <v>103.2088015756596</v>
       </c>
       <c r="I36" t="n">
         <v>67.34293182217556</v>
       </c>
       <c r="J36" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,7 +25275,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.67595755514222</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>87.64991563208079</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>187.2945446159794</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>141.3725466585373</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>169.6347470620633</v>
       </c>
     </row>
     <row r="37">
@@ -25333,28 +25333,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J37" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K37" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L37" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M37" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N37" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O37" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P37" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R37" t="n">
         <v>142.0612469209158</v>
@@ -25394,10 +25394,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>290.2826030757428</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>317.5299315273216</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25412,7 +25412,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J38" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,28 +25433,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.66723710216408</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R38" t="n">
-        <v>105.8559575665871</v>
+        <v>49.13205129620344</v>
       </c>
       <c r="S38" t="n">
         <v>169.214082920519</v>
       </c>
       <c r="T38" t="n">
-        <v>151.0486438604758</v>
+        <v>215.4490824054164</v>
       </c>
       <c r="U38" t="n">
-        <v>186.8054676187047</v>
+        <v>251.2059061636452</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>263.3518199251947</v>
       </c>
       <c r="W38" t="n">
-        <v>284.8405301724724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>313.0071944080856</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,16 +25473,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>90.72115929425512</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>93.24464191046039</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>80.66877384844332</v>
+        <v>80.66877384844369</v>
       </c>
       <c r="G39" t="n">
-        <v>72.00843986864663</v>
+        <v>79.68497214320388</v>
       </c>
       <c r="H39" t="n">
         <v>103.2088015756596</v>
@@ -25491,7 +25491,7 @@
         <v>67.34293182217556</v>
       </c>
       <c r="J39" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R39" t="n">
         <v>87.64991563208079</v>
@@ -25521,13 +25521,13 @@
         <v>154.3226662588587</v>
       </c>
       <c r="T39" t="n">
-        <v>196.3974786469973</v>
+        <v>131.9970401020571</v>
       </c>
       <c r="U39" t="n">
         <v>225.8798926895522</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>168.4001486044851</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25570,28 +25570,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J40" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K40" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L40" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M40" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N40" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O40" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P40" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R40" t="n">
         <v>142.0612469209158</v>
@@ -25649,7 +25649,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J41" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,25 +25670,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.66723710216408</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R41" t="n">
-        <v>49.13205129620365</v>
+        <v>105.8559575665871</v>
       </c>
       <c r="S41" t="n">
-        <v>104.8136443755784</v>
+        <v>169.214082920519</v>
       </c>
       <c r="T41" t="n">
-        <v>151.0486438604758</v>
+        <v>158.7251761350329</v>
       </c>
       <c r="U41" t="n">
-        <v>186.8054676187047</v>
+        <v>186.8054676187048</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>263.3518199251945</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>284.8405301724726</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25713,10 +25713,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>100.9211741850173</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>80.66877384844332</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.4088784135872</v>
@@ -25728,7 +25728,7 @@
         <v>67.34293182217556</v>
       </c>
       <c r="J42" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,7 +25749,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.67595755514222</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R42" t="n">
         <v>87.64991563208079</v>
@@ -25761,19 +25761,19 @@
         <v>196.3974786469973</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8798926895522</v>
+        <v>161.4794541446118</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>176.0766808790418</v>
       </c>
       <c r="W42" t="n">
-        <v>187.294544615979</v>
+        <v>187.2945446159792</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>141.372546658537</v>
       </c>
       <c r="Y42" t="n">
-        <v>141.2822572323638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25807,28 +25807,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J43" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K43" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L43" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M43" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N43" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O43" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P43" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R43" t="n">
         <v>142.0612469209158</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4577541242053</v>
       </c>
       <c r="G44" t="n">
-        <v>413.5559032127445</v>
+        <v>361.1376115952384</v>
       </c>
       <c r="H44" t="n">
         <v>321.5850353164092</v>
@@ -25886,7 +25886,7 @@
         <v>143.1310601274914</v>
       </c>
       <c r="J44" t="n">
-        <v>32.78552665416009</v>
+        <v>32.78552665416012</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,25 +25907,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.66723710216408</v>
+        <v>33.66723710216411</v>
       </c>
       <c r="R44" t="n">
-        <v>59.68592630988771</v>
+        <v>105.8559575665871</v>
       </c>
       <c r="S44" t="n">
-        <v>116.7957913030128</v>
+        <v>169.214082920519</v>
       </c>
       <c r="T44" t="n">
         <v>215.4490824054164</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2059061636452</v>
+        <v>198.7876145461391</v>
       </c>
       <c r="V44" t="n">
-        <v>275.3339668526287</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>296.8226770999069</v>
+        <v>303.0709374607137</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,7 +25947,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>95.02677394713264</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,13 +25959,13 @@
         <v>136.4088784135872</v>
       </c>
       <c r="H45" t="n">
-        <v>77.71472787410239</v>
+        <v>103.2088015756596</v>
       </c>
       <c r="I45" t="n">
-        <v>14.92464020466941</v>
+        <v>67.34293182217556</v>
       </c>
       <c r="J45" t="n">
-        <v>38.53476129105952</v>
+        <v>38.53476129105954</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,22 +25986,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.67595755514223</v>
       </c>
       <c r="R45" t="n">
-        <v>35.23162401457464</v>
+        <v>87.64991563208079</v>
       </c>
       <c r="S45" t="n">
-        <v>101.9043746413525</v>
+        <v>154.3226662588587</v>
       </c>
       <c r="T45" t="n">
-        <v>196.3974786469973</v>
+        <v>150.2274473902979</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8798926895522</v>
+        <v>173.4616010720461</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>180.3822955319192</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26044,28 +26044,28 @@
         <v>131.8863961037065</v>
       </c>
       <c r="J46" t="n">
-        <v>71.59704144823456</v>
+        <v>71.59704144823458</v>
       </c>
       <c r="K46" t="n">
-        <v>37.97670213516899</v>
+        <v>37.97670213516901</v>
       </c>
       <c r="L46" t="n">
-        <v>18.38922734521462</v>
+        <v>18.38922734521464</v>
       </c>
       <c r="M46" t="n">
-        <v>16.09766691178169</v>
+        <v>16.0976669117817</v>
       </c>
       <c r="N46" t="n">
-        <v>7.77800551818126</v>
+        <v>7.778005518181274</v>
       </c>
       <c r="O46" t="n">
-        <v>27.70251863667242</v>
+        <v>27.70251863667244</v>
       </c>
       <c r="P46" t="n">
-        <v>42.95880674910738</v>
+        <v>42.9588067491074</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.89172168877604</v>
+        <v>85.89172168877606</v>
       </c>
       <c r="R46" t="n">
         <v>142.0612469209158</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332797.9645671762</v>
+        <v>332797.9645671764</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332797.9645671763</v>
+        <v>332797.9645671764</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>339650.8412161341</v>
+        <v>339650.841216134</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>339650.8412161343</v>
+        <v>339650.841216134</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332797.9645671763</v>
+        <v>332797.9645671762</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>332797.9645671763</v>
+        <v>332797.9645671762</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332797.9645671764</v>
+        <v>332797.9645671762</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>325423.0144819328</v>
+        <v>325423.0144819327</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>87135.38720865607</v>
       </c>
       <c r="D2" t="n">
-        <v>87162.97410440244</v>
+        <v>87162.97410440243</v>
       </c>
       <c r="E2" t="n">
-        <v>115199.2954270994</v>
+        <v>115199.2954270995</v>
       </c>
       <c r="F2" t="n">
         <v>115199.2954270994</v>
       </c>
       <c r="G2" t="n">
-        <v>115199.2954270993</v>
+        <v>115199.2954270994</v>
       </c>
       <c r="H2" t="n">
         <v>116927.8402783512</v>
@@ -26344,10 +26344,10 @@
         <v>117571.445036354</v>
       </c>
       <c r="M2" t="n">
-        <v>115199.2954270995</v>
+        <v>115199.2954270993</v>
       </c>
       <c r="N2" t="n">
-        <v>115199.2954270994</v>
+        <v>115199.2954270993</v>
       </c>
       <c r="O2" t="n">
         <v>115199.2954270994</v>
@@ -26372,7 +26372,7 @@
         <v>117.1538387574727</v>
       </c>
       <c r="E3" t="n">
-        <v>106162.2258414522</v>
+        <v>106162.2258414524</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3232.891080344151</v>
+        <v>3232.891080344125</v>
       </c>
       <c r="I3" t="n">
-        <v>1567.966636920097</v>
+        <v>1567.966636920082</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>11593.45080078522</v>
+        <v>11593.45080078504</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46.66494807535191</v>
+        <v>46.66494807535209</v>
       </c>
       <c r="F4" t="n">
-        <v>46.66494807535194</v>
+        <v>46.66494807535207</v>
       </c>
       <c r="G4" t="n">
-        <v>46.66494807535196</v>
+        <v>46.66494807535197</v>
       </c>
       <c r="H4" t="n">
-        <v>52.54375245331271</v>
+        <v>52.54375245331269</v>
       </c>
       <c r="I4" t="n">
-        <v>54.73266092524705</v>
+        <v>54.73266092524701</v>
       </c>
       <c r="J4" t="n">
-        <v>54.73266092524705</v>
+        <v>54.73266092524702</v>
       </c>
       <c r="K4" t="n">
-        <v>54.73266092524705</v>
+        <v>54.73266092524702</v>
       </c>
       <c r="L4" t="n">
-        <v>54.73266092524705</v>
+        <v>54.73266092524701</v>
       </c>
       <c r="M4" t="n">
-        <v>46.66494807535205</v>
+        <v>46.66494807535185</v>
       </c>
       <c r="N4" t="n">
-        <v>46.66494807535206</v>
+        <v>46.66494807535185</v>
       </c>
       <c r="O4" t="n">
-        <v>46.66494807535206</v>
+        <v>46.66494807535197</v>
       </c>
       <c r="P4" t="n">
-        <v>37.98261179266081</v>
+        <v>37.9826117926608</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>40741.33736580378</v>
       </c>
       <c r="E5" t="n">
-        <v>13388.19237682112</v>
+        <v>13388.19237682114</v>
       </c>
       <c r="F5" t="n">
-        <v>13388.19237682113</v>
+        <v>13388.19237682114</v>
       </c>
       <c r="G5" t="n">
         <v>13388.19237682113</v>
@@ -26500,16 +26500,16 @@
         <v>14475.20575562397</v>
       </c>
       <c r="M5" t="n">
-        <v>13388.19237682114</v>
+        <v>13388.19237682111</v>
       </c>
       <c r="N5" t="n">
-        <v>13388.19237682114</v>
+        <v>13388.19237682111</v>
       </c>
       <c r="O5" t="n">
-        <v>13388.19237682114</v>
+        <v>13388.19237682113</v>
       </c>
       <c r="P5" t="n">
-        <v>12659.67784363313</v>
+        <v>12659.67784363312</v>
       </c>
     </row>
     <row r="6">
@@ -26525,19 +26525,19 @@
         <v>40605.40886639026</v>
       </c>
       <c r="D6" t="n">
-        <v>46304.48289984119</v>
+        <v>46304.48289984118</v>
       </c>
       <c r="E6" t="n">
-        <v>-4397.787739249357</v>
+        <v>-4397.787739249467</v>
       </c>
       <c r="F6" t="n">
         <v>101764.4381022029</v>
       </c>
       <c r="G6" t="n">
-        <v>101764.4381022029</v>
+        <v>101764.438102203</v>
       </c>
       <c r="H6" t="n">
-        <v>99525.69853554456</v>
+        <v>99525.69853554459</v>
       </c>
       <c r="I6" t="n">
         <v>101473.5399828847</v>
@@ -26552,16 +26552,16 @@
         <v>103041.5066198048</v>
       </c>
       <c r="M6" t="n">
-        <v>90170.98730141774</v>
+        <v>90170.98730141783</v>
       </c>
       <c r="N6" t="n">
-        <v>101764.4381022029</v>
+        <v>101764.4381022028</v>
       </c>
       <c r="O6" t="n">
         <v>101764.4381022029</v>
       </c>
       <c r="P6" t="n">
-        <v>99948.76763447394</v>
+        <v>99948.76763447392</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>326.3182277891643</v>
       </c>
       <c r="E3" t="n">
-        <v>434.5250327196674</v>
+        <v>434.5250327196676</v>
       </c>
       <c r="F3" t="n">
-        <v>434.5250327196675</v>
+        <v>434.5250327196676</v>
       </c>
       <c r="G3" t="n">
         <v>434.5250327196675</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>64.40043854494031</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="F4" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="G4" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="H4" t="n">
         <v>76.38258547237476</v>
       </c>
       <c r="I4" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="J4" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="K4" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="L4" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="M4" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="N4" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="O4" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="P4" t="n">
-        <v>52.41829161750615</v>
+        <v>52.41829161750611</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0.1367958005794776</v>
       </c>
       <c r="E3" t="n">
-        <v>108.2068049305032</v>
+        <v>108.2068049305033</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.98214692743441</v>
+        <v>11.98214692743431</v>
       </c>
       <c r="I4" t="n">
-        <v>5.89636259234922</v>
+        <v>5.896362592349163</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.52192902515696</v>
+        <v>46.52192902515625</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>11.98214692743441</v>
+        <v>11.98214692743431</v>
       </c>
     </row>
   </sheetData>
@@ -31048,7 +31048,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
@@ -31072,13 +31072,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S2" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T2" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31127,7 +31127,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31157,7 +31157,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U3" t="n">
         <v>0.04525771959877963</v>
@@ -31200,13 +31200,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K4" t="n">
         <v>67.00516676073742</v>
@@ -31221,10 +31221,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q4" t="n">
         <v>48.29300399320443</v>
@@ -31294,7 +31294,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M5" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -31443,19 +31443,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J7" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K7" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L7" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M7" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N7" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O7" t="n">
         <v>83.13883450095931</v>
@@ -31519,7 +31519,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I8" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J8" t="n">
         <v>111.3401072796808</v>
@@ -31546,7 +31546,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R8" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S8" t="n">
         <v>29.89337332963048</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H9" t="n">
         <v>6.778799411242828</v>
@@ -31625,7 +31625,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R9" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S9" t="n">
         <v>13.03733674233122</v>
@@ -31674,7 +31674,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H10" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I10" t="n">
         <v>17.69607700863206</v>
@@ -31686,10 +31686,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L10" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M10" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N10" t="n">
         <v>90.04778243237713</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.746834302390621</v>
+        <v>1.746834302390622</v>
       </c>
       <c r="H11" t="n">
         <v>17.88976679935796</v>
       </c>
       <c r="I11" t="n">
-        <v>67.3448294429145</v>
+        <v>67.34482944291453</v>
       </c>
       <c r="J11" t="n">
-        <v>148.2603778725261</v>
+        <v>148.2603778725262</v>
       </c>
       <c r="K11" t="n">
-        <v>222.2038738927212</v>
+        <v>222.2038738927213</v>
       </c>
       <c r="L11" t="n">
-        <v>275.6635541745082</v>
+        <v>275.6635541745084</v>
       </c>
       <c r="M11" t="n">
-        <v>294.7466717722131</v>
+        <v>294.7466717722133</v>
       </c>
       <c r="N11" t="n">
-        <v>293.8135021415312</v>
+        <v>293.8135021415315</v>
       </c>
       <c r="O11" t="n">
-        <v>294.3219280669181</v>
+        <v>294.3219280669182</v>
       </c>
       <c r="P11" t="n">
-        <v>251.1969562266495</v>
+        <v>251.1969562266496</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.6384527722853</v>
+        <v>188.6384527722854</v>
       </c>
       <c r="R11" t="n">
         <v>109.729580247545</v>
       </c>
       <c r="S11" t="n">
-        <v>39.80598666572633</v>
+        <v>39.80598666572634</v>
       </c>
       <c r="T11" t="n">
-        <v>7.646767158714949</v>
+        <v>7.646767158714953</v>
       </c>
       <c r="U11" t="n">
         <v>0.1397467441912497</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9346387496234356</v>
+        <v>0.934638749623436</v>
       </c>
       <c r="H12" t="n">
-        <v>9.026642660836867</v>
+        <v>9.02664266083687</v>
       </c>
       <c r="I12" t="n">
-        <v>32.17944817782443</v>
+        <v>32.17944817782445</v>
       </c>
       <c r="J12" t="n">
-        <v>88.30286537560714</v>
+        <v>88.30286537560718</v>
       </c>
       <c r="K12" t="n">
-        <v>150.9236616003773</v>
+        <v>150.9236616003774</v>
       </c>
       <c r="L12" t="n">
-        <v>202.9354881583692</v>
+        <v>202.9354881583693</v>
       </c>
       <c r="M12" t="n">
-        <v>206.5344724669586</v>
+        <v>146.3689412502473</v>
       </c>
       <c r="N12" t="n">
-        <v>195.7421506282736</v>
+        <v>195.7421506282739</v>
       </c>
       <c r="O12" t="n">
-        <v>146.8311517726731</v>
+        <v>206.996682989385</v>
       </c>
       <c r="P12" t="n">
-        <v>178.4750082504611</v>
+        <v>178.4750082504612</v>
       </c>
       <c r="Q12" t="n">
         <v>119.3058165308793</v>
       </c>
       <c r="R12" t="n">
-        <v>58.02958833188315</v>
+        <v>58.02958833188318</v>
       </c>
       <c r="S12" t="n">
-        <v>17.36050484497915</v>
+        <v>17.36050484497916</v>
       </c>
       <c r="T12" t="n">
-        <v>3.767250047824285</v>
+        <v>3.767250047824287</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06148939142259447</v>
+        <v>0.0614893914225945</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7835697311338264</v>
+        <v>0.7835697311338267</v>
       </c>
       <c r="H13" t="n">
-        <v>6.966647245898934</v>
+        <v>6.966647245898937</v>
       </c>
       <c r="I13" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J13" t="n">
-        <v>55.39837999116153</v>
+        <v>55.39837999116155</v>
       </c>
       <c r="K13" t="n">
-        <v>91.03655603536636</v>
+        <v>91.03655603536639</v>
       </c>
       <c r="L13" t="n">
-        <v>116.4954489360236</v>
+        <v>116.4954489360237</v>
       </c>
       <c r="M13" t="n">
-        <v>122.8281170358233</v>
+        <v>122.8281170358234</v>
       </c>
       <c r="N13" t="n">
         <v>119.9075389470519</v>
       </c>
       <c r="O13" t="n">
-        <v>110.7540198151703</v>
+        <v>110.7540198151704</v>
       </c>
       <c r="P13" t="n">
-        <v>94.7691973000402</v>
+        <v>94.76919730004025</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.61327994066978</v>
+        <v>65.6132799406698</v>
       </c>
       <c r="R13" t="n">
-        <v>35.23214445625368</v>
+        <v>35.23214445625369</v>
       </c>
       <c r="S13" t="n">
-        <v>13.65548340530495</v>
+        <v>13.65548340530496</v>
       </c>
       <c r="T13" t="n">
-        <v>3.347979760299076</v>
+        <v>3.347979760299077</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04274016715275421</v>
+        <v>0.04274016715275424</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31993,25 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I14" t="n">
-        <v>67.3448294429145</v>
+        <v>67.34482944291453</v>
       </c>
       <c r="J14" t="n">
         <v>148.2603778725262</v>
       </c>
       <c r="K14" t="n">
-        <v>222.2038738927212</v>
+        <v>222.2038738927213</v>
       </c>
       <c r="L14" t="n">
-        <v>275.6635541745082</v>
+        <v>275.6635541745084</v>
       </c>
       <c r="M14" t="n">
-        <v>294.7466717722131</v>
+        <v>294.7466717722133</v>
       </c>
       <c r="N14" t="n">
-        <v>293.8135021415313</v>
+        <v>293.8135021415314</v>
       </c>
       <c r="O14" t="n">
-        <v>294.3219280669181</v>
+        <v>294.3219280669182</v>
       </c>
       <c r="P14" t="n">
         <v>251.1969562266496</v>
@@ -32023,10 +32023,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S14" t="n">
-        <v>39.80598666572633</v>
+        <v>39.80598666572634</v>
       </c>
       <c r="T14" t="n">
-        <v>7.64676715871495</v>
+        <v>7.646767158714953</v>
       </c>
       <c r="U14" t="n">
         <v>0.1397467441912497</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9346387496234357</v>
+        <v>0.934638749623436</v>
       </c>
       <c r="H15" t="n">
-        <v>9.026642660836867</v>
+        <v>9.02664266083687</v>
       </c>
       <c r="I15" t="n">
-        <v>32.17944817782443</v>
+        <v>32.17944817782445</v>
       </c>
       <c r="J15" t="n">
-        <v>88.30286537560715</v>
+        <v>88.30286537560718</v>
       </c>
       <c r="K15" t="n">
-        <v>150.9236616003774</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>142.7699569416575</v>
+        <v>202.9354881583693</v>
       </c>
       <c r="M15" t="n">
-        <v>206.5344724669587</v>
+        <v>206.5344724669589</v>
       </c>
       <c r="N15" t="n">
-        <v>195.7421506282737</v>
+        <v>148.6588420375806</v>
       </c>
       <c r="O15" t="n">
-        <v>206.9966829893848</v>
+        <v>206.996682989385</v>
       </c>
       <c r="P15" t="n">
         <v>178.4750082504612</v>
@@ -32099,16 +32099,16 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R15" t="n">
-        <v>58.02958833188316</v>
+        <v>58.02958833188318</v>
       </c>
       <c r="S15" t="n">
         <v>17.36050484497916</v>
       </c>
       <c r="T15" t="n">
-        <v>3.767250047824286</v>
+        <v>3.767250047824287</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06148939142259448</v>
+        <v>0.0614893914225945</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7835697311338266</v>
+        <v>0.7835697311338267</v>
       </c>
       <c r="H16" t="n">
-        <v>6.966647245898935</v>
+        <v>6.966647245898937</v>
       </c>
       <c r="I16" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J16" t="n">
-        <v>55.39837999116153</v>
+        <v>55.39837999116155</v>
       </c>
       <c r="K16" t="n">
-        <v>91.03655603536637</v>
+        <v>91.03655603536639</v>
       </c>
       <c r="L16" t="n">
-        <v>116.4954489360236</v>
+        <v>116.4954489360237</v>
       </c>
       <c r="M16" t="n">
         <v>122.8281170358234</v>
@@ -32172,22 +32172,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P16" t="n">
-        <v>94.76919730004022</v>
+        <v>94.76919730004025</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.61327994066978</v>
+        <v>65.6132799406698</v>
       </c>
       <c r="R16" t="n">
-        <v>35.23214445625368</v>
+        <v>35.23214445625369</v>
       </c>
       <c r="S16" t="n">
-        <v>13.65548340530495</v>
+        <v>13.65548340530496</v>
       </c>
       <c r="T16" t="n">
-        <v>3.347979760299076</v>
+        <v>3.347979760299077</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04274016715275422</v>
+        <v>0.04274016715275424</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I17" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J17" t="n">
         <v>148.2603778725262</v>
@@ -32239,10 +32239,10 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L17" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M17" t="n">
-        <v>294.7466717722131</v>
+        <v>294.7466717722132</v>
       </c>
       <c r="N17" t="n">
         <v>293.8135021415313</v>
@@ -32260,10 +32260,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S17" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T17" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U17" t="n">
         <v>0.1397467441912497</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H18" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I18" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J18" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>155.8521795676759</v>
+        <v>155.852179567676</v>
       </c>
       <c r="M18" t="n">
         <v>206.5344724669587</v>
@@ -32327,7 +32327,7 @@
         <v>195.7421506282737</v>
       </c>
       <c r="O18" t="n">
-        <v>206.9966829893848</v>
+        <v>206.9966829893849</v>
       </c>
       <c r="P18" t="n">
         <v>178.4750082504612</v>
@@ -32336,7 +32336,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R18" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S18" t="n">
         <v>17.36050484497916</v>
@@ -32345,7 +32345,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H19" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I19" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J19" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K19" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L19" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M19" t="n">
         <v>122.8281170358234</v>
@@ -32409,22 +32409,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P19" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R19" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S19" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T19" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I20" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J20" t="n">
         <v>148.2603778725262</v>
@@ -32476,7 +32476,7 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L20" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M20" t="n">
         <v>306.7288186996475</v>
@@ -32497,10 +32497,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S20" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T20" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U20" t="n">
         <v>0.1397467441912497</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H21" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I21" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J21" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K21" t="n">
         <v>150.9236616003774</v>
@@ -32558,7 +32558,7 @@
         <v>202.9354881583693</v>
       </c>
       <c r="M21" t="n">
-        <v>169.8491079565325</v>
+        <v>169.8491079565326</v>
       </c>
       <c r="N21" t="n">
         <v>207.7242975557081</v>
@@ -32573,7 +32573,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R21" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S21" t="n">
         <v>17.36050484497916</v>
@@ -32582,7 +32582,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,22 +32619,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H22" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I22" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J22" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K22" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L22" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M22" t="n">
         <v>122.8281170358234</v>
@@ -32646,22 +32646,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P22" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R22" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S22" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T22" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I23" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J23" t="n">
         <v>148.2603778725262</v>
@@ -32713,13 +32713,13 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L23" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M23" t="n">
         <v>306.7288186996475</v>
       </c>
       <c r="N23" t="n">
-        <v>311.6920116613149</v>
+        <v>311.6920116613148</v>
       </c>
       <c r="O23" t="n">
         <v>294.3219280669181</v>
@@ -32734,10 +32734,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S23" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T23" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U23" t="n">
         <v>0.1397467441912497</v>
@@ -32777,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H24" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I24" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J24" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K24" t="n">
-        <v>150.9236616003774</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>202.9354881583693</v>
       </c>
       <c r="M24" t="n">
-        <v>183.9044543445491</v>
+        <v>224.4129819867422</v>
       </c>
       <c r="N24" t="n">
-        <v>213.6206601480573</v>
+        <v>186.1943551318824</v>
       </c>
       <c r="O24" t="n">
         <v>222.3743344334321</v>
@@ -32810,7 +32810,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R24" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S24" t="n">
         <v>17.36050484497916</v>
@@ -32819,7 +32819,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,22 +32856,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H25" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I25" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J25" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K25" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L25" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M25" t="n">
         <v>122.8281170358234</v>
@@ -32883,22 +32883,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P25" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R25" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S25" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T25" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I26" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J26" t="n">
         <v>148.2603778725262</v>
@@ -32950,13 +32950,13 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L26" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M26" t="n">
         <v>306.7288186996475</v>
       </c>
       <c r="N26" t="n">
-        <v>311.6920116613149</v>
+        <v>311.6920116613148</v>
       </c>
       <c r="O26" t="n">
         <v>294.3219280669181</v>
@@ -32971,10 +32971,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S26" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T26" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U26" t="n">
         <v>0.1397467441912497</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H27" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I27" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J27" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K27" t="n">
-        <v>150.9236616003774</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>202.9354881583693</v>
       </c>
       <c r="M27" t="n">
-        <v>224.4129819867423</v>
+        <v>224.4129819867422</v>
       </c>
       <c r="N27" t="n">
-        <v>213.6206601480573</v>
+        <v>213.6206601480572</v>
       </c>
       <c r="O27" t="n">
-        <v>181.8658067912389</v>
+        <v>194.9480294172573</v>
       </c>
       <c r="P27" t="n">
         <v>178.4750082504612</v>
@@ -33047,7 +33047,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R27" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S27" t="n">
         <v>17.36050484497916</v>
@@ -33056,7 +33056,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,22 +33093,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H28" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I28" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J28" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K28" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L28" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M28" t="n">
         <v>122.8281170358234</v>
@@ -33120,22 +33120,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P28" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R28" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S28" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T28" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I29" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J29" t="n">
         <v>148.2603778725262</v>
@@ -33187,13 +33187,13 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L29" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M29" t="n">
         <v>306.7288186996475</v>
       </c>
       <c r="N29" t="n">
-        <v>311.6920116613149</v>
+        <v>311.6920116613148</v>
       </c>
       <c r="O29" t="n">
         <v>294.3219280669181</v>
@@ -33208,10 +33208,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S29" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T29" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U29" t="n">
         <v>0.1397467441912497</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H30" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I30" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J30" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>175.5091831421944</v>
+        <v>202.9354881583693</v>
       </c>
       <c r="M30" t="n">
-        <v>224.4129819867423</v>
+        <v>196.9866769705674</v>
       </c>
       <c r="N30" t="n">
-        <v>213.6206601480573</v>
+        <v>213.6206601480572</v>
       </c>
       <c r="O30" t="n">
         <v>222.3743344334321</v>
@@ -33284,7 +33284,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R30" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S30" t="n">
         <v>17.36050484497916</v>
@@ -33293,7 +33293,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,22 +33330,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H31" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I31" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J31" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K31" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L31" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M31" t="n">
         <v>122.8281170358234</v>
@@ -33357,22 +33357,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P31" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R31" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S31" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T31" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I32" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J32" t="n">
         <v>148.2603778725262</v>
@@ -33424,13 +33424,13 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L32" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M32" t="n">
         <v>306.7288186996475</v>
       </c>
       <c r="N32" t="n">
-        <v>311.6920116613149</v>
+        <v>311.6920116613148</v>
       </c>
       <c r="O32" t="n">
         <v>294.3219280669181</v>
@@ -33445,10 +33445,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S32" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T32" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U32" t="n">
         <v>0.1397467441912497</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H33" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I33" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J33" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K33" t="n">
         <v>150.9236616003774</v>
@@ -33506,10 +33506,10 @@
         <v>202.9354881583693</v>
       </c>
       <c r="M33" t="n">
-        <v>183.9044543445491</v>
+        <v>224.4129819867422</v>
       </c>
       <c r="N33" t="n">
-        <v>213.6206601480573</v>
+        <v>173.1121325058641</v>
       </c>
       <c r="O33" t="n">
         <v>222.3743344334321</v>
@@ -33521,7 +33521,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R33" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S33" t="n">
         <v>17.36050484497916</v>
@@ -33530,7 +33530,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,22 +33567,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H34" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I34" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J34" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K34" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L34" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M34" t="n">
         <v>122.8281170358234</v>
@@ -33594,22 +33594,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P34" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R34" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S34" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T34" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I35" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J35" t="n">
         <v>148.2603778725262</v>
@@ -33661,13 +33661,13 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L35" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M35" t="n">
-        <v>294.7466717722133</v>
+        <v>294.7466717722129</v>
       </c>
       <c r="N35" t="n">
-        <v>293.8135021415314</v>
+        <v>293.8135021415311</v>
       </c>
       <c r="O35" t="n">
         <v>294.3219280669181</v>
@@ -33682,10 +33682,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S35" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T35" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U35" t="n">
         <v>0.1397467441912497</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H36" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I36" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J36" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K36" t="n">
-        <v>150.9236616003774</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>202.9354881583693</v>
+        <v>155.8521795676757</v>
       </c>
       <c r="M36" t="n">
-        <v>146.3689412502473</v>
+        <v>206.5344724669585</v>
       </c>
       <c r="N36" t="n">
-        <v>195.7421506282739</v>
+        <v>195.7421506282735</v>
       </c>
       <c r="O36" t="n">
-        <v>206.996682989385</v>
+        <v>206.9966829893846</v>
       </c>
       <c r="P36" t="n">
         <v>178.4750082504612</v>
@@ -33758,7 +33758,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R36" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S36" t="n">
         <v>17.36050484497916</v>
@@ -33767,7 +33767,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,22 +33804,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H37" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I37" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J37" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K37" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L37" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M37" t="n">
         <v>122.8281170358234</v>
@@ -33831,22 +33831,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P37" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R37" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S37" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T37" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I38" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J38" t="n">
         <v>148.2603778725262</v>
@@ -33898,13 +33898,13 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L38" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M38" t="n">
-        <v>294.7466717722133</v>
+        <v>294.7466717722129</v>
       </c>
       <c r="N38" t="n">
-        <v>293.8135021415314</v>
+        <v>293.8135021415311</v>
       </c>
       <c r="O38" t="n">
         <v>294.3219280669181</v>
@@ -33919,10 +33919,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S38" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T38" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U38" t="n">
         <v>0.1397467441912497</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H39" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I39" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J39" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K39" t="n">
         <v>150.9236616003774</v>
@@ -33980,13 +33980,13 @@
         <v>202.9354881583693</v>
       </c>
       <c r="M39" t="n">
-        <v>206.5344724669589</v>
+        <v>206.5344724669585</v>
       </c>
       <c r="N39" t="n">
-        <v>195.7421506282739</v>
+        <v>195.7421506282735</v>
       </c>
       <c r="O39" t="n">
-        <v>146.8311517726734</v>
+        <v>146.8311517726727</v>
       </c>
       <c r="P39" t="n">
         <v>178.4750082504612</v>
@@ -33995,7 +33995,7 @@
         <v>119.3058165308793</v>
       </c>
       <c r="R39" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S39" t="n">
         <v>17.36050484497916</v>
@@ -34004,7 +34004,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,22 +34041,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H40" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I40" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J40" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K40" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L40" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M40" t="n">
         <v>122.8281170358234</v>
@@ -34068,22 +34068,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P40" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R40" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S40" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T40" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I41" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J41" t="n">
         <v>148.2603778725262</v>
@@ -34135,13 +34135,13 @@
         <v>222.2038738927212</v>
       </c>
       <c r="L41" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M41" t="n">
-        <v>294.7466717722133</v>
+        <v>294.7466717722132</v>
       </c>
       <c r="N41" t="n">
-        <v>293.8135021415314</v>
+        <v>293.8135021415313</v>
       </c>
       <c r="O41" t="n">
         <v>294.3219280669181</v>
@@ -34156,10 +34156,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S41" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T41" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U41" t="n">
         <v>0.1397467441912497</v>
@@ -34199,40 +34199,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H42" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I42" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J42" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>150.9236616003774</v>
       </c>
       <c r="L42" t="n">
         <v>202.9354881583693</v>
       </c>
       <c r="M42" t="n">
-        <v>206.5344724669589</v>
+        <v>206.5344724669587</v>
       </c>
       <c r="N42" t="n">
-        <v>195.7421506282739</v>
+        <v>135.5766194115621</v>
       </c>
       <c r="O42" t="n">
-        <v>204.4139752348227</v>
+        <v>206.9966829893849</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>178.4750082504612</v>
       </c>
       <c r="Q42" t="n">
         <v>119.3058165308793</v>
       </c>
       <c r="R42" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S42" t="n">
         <v>17.36050484497916</v>
@@ -34241,7 +34241,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,22 +34278,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H43" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I43" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J43" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K43" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L43" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M43" t="n">
         <v>122.8281170358234</v>
@@ -34305,22 +34305,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P43" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R43" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S43" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T43" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,25 +34363,25 @@
         <v>17.88976679935796</v>
       </c>
       <c r="I44" t="n">
-        <v>67.34482944291452</v>
+        <v>67.3448294429145</v>
       </c>
       <c r="J44" t="n">
         <v>148.2603778725262</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>222.2038738927212</v>
       </c>
       <c r="L44" t="n">
-        <v>275.6635541745083</v>
+        <v>275.6635541745082</v>
       </c>
       <c r="M44" t="n">
         <v>282.7645248447789</v>
       </c>
       <c r="N44" t="n">
-        <v>281.8313552140971</v>
+        <v>281.831355214097</v>
       </c>
       <c r="O44" t="n">
-        <v>272.9557842083734</v>
+        <v>270.8417613606327</v>
       </c>
       <c r="P44" t="n">
         <v>251.1969562266496</v>
@@ -34393,10 +34393,10 @@
         <v>109.729580247545</v>
       </c>
       <c r="S44" t="n">
-        <v>39.80598666572634</v>
+        <v>39.80598666572633</v>
       </c>
       <c r="T44" t="n">
-        <v>7.646767158714951</v>
+        <v>7.64676715871495</v>
       </c>
       <c r="U44" t="n">
         <v>0.1397467441912497</v>
@@ -34436,40 +34436,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9346387496234358</v>
+        <v>0.9346387496234357</v>
       </c>
       <c r="H45" t="n">
-        <v>9.026642660836869</v>
+        <v>9.026642660836867</v>
       </c>
       <c r="I45" t="n">
-        <v>32.17944817782444</v>
+        <v>32.17944817782443</v>
       </c>
       <c r="J45" t="n">
-        <v>88.30286537560717</v>
+        <v>88.30286537560715</v>
       </c>
       <c r="K45" t="n">
-        <v>150.9236616003774</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>190.9726713973803</v>
       </c>
       <c r="M45" t="n">
-        <v>187.2698829224568</v>
+        <v>194.5523255395244</v>
       </c>
       <c r="N45" t="n">
-        <v>183.7600037008395</v>
+        <v>183.7600037008394</v>
       </c>
       <c r="O45" t="n">
-        <v>195.0145360619506</v>
+        <v>192.8966252895261</v>
       </c>
       <c r="P45" t="n">
-        <v>178.4750082504612</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>119.3058165308793</v>
       </c>
       <c r="R45" t="n">
-        <v>58.02958833188317</v>
+        <v>58.02958833188316</v>
       </c>
       <c r="S45" t="n">
         <v>17.36050484497916</v>
@@ -34478,7 +34478,7 @@
         <v>3.767250047824286</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06148939142259449</v>
+        <v>0.06148939142259448</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,22 +34515,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7835697311338267</v>
+        <v>0.7835697311338266</v>
       </c>
       <c r="H46" t="n">
-        <v>6.966647245898936</v>
+        <v>6.966647245898935</v>
       </c>
       <c r="I46" t="n">
         <v>23.56407882355181</v>
       </c>
       <c r="J46" t="n">
-        <v>55.39837999116154</v>
+        <v>55.39837999116153</v>
       </c>
       <c r="K46" t="n">
-        <v>91.03655603536639</v>
+        <v>91.03655603536637</v>
       </c>
       <c r="L46" t="n">
-        <v>116.4954489360237</v>
+        <v>116.4954489360236</v>
       </c>
       <c r="M46" t="n">
         <v>122.8281170358234</v>
@@ -34542,22 +34542,22 @@
         <v>110.7540198151704</v>
       </c>
       <c r="P46" t="n">
-        <v>94.76919730004023</v>
+        <v>94.76919730004022</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.6132799406698</v>
+        <v>65.61327994066978</v>
       </c>
       <c r="R46" t="n">
-        <v>35.23214445625369</v>
+        <v>35.23214445625368</v>
       </c>
       <c r="S46" t="n">
-        <v>13.65548340530496</v>
+        <v>13.65548340530495</v>
       </c>
       <c r="T46" t="n">
-        <v>3.347979760299077</v>
+        <v>3.347979760299076</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04274016715275423</v>
+        <v>0.04274016715275422</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2.114022847740642</v>
+        <v>2.114022847740728</v>
       </c>
       <c r="L11" t="n">
-        <v>39.89713920452101</v>
+        <v>39.89713920452112</v>
       </c>
       <c r="M11" t="n">
-        <v>64.40043854494031</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="N11" t="n">
-        <v>64.40043854494031</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="O11" t="n">
-        <v>64.22371664523135</v>
+        <v>64.22371664523146</v>
       </c>
       <c r="P11" t="n">
-        <v>19.96396047138001</v>
+        <v>19.96396047138009</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>13.08222262601834</v>
+        <v>13.08222262601839</v>
       </c>
       <c r="L12" t="n">
-        <v>64.38110837849504</v>
+        <v>64.38110837849513</v>
       </c>
       <c r="M12" t="n">
-        <v>64.40043854494031</v>
+        <v>4.23490732822895</v>
       </c>
       <c r="N12" t="n">
-        <v>64.40043854494031</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="O12" t="n">
-        <v>4.234907328228649</v>
+        <v>64.40043854494058</v>
       </c>
       <c r="P12" t="n">
-        <v>44.5006008361309</v>
+        <v>44.50060083613099</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.114022847740671</v>
+        <v>2.114022847740728</v>
       </c>
       <c r="L14" t="n">
-        <v>39.89713920452101</v>
+        <v>39.89713920452112</v>
       </c>
       <c r="M14" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="N14" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="O14" t="n">
-        <v>64.22371664523135</v>
+        <v>64.22371664523146</v>
       </c>
       <c r="P14" t="n">
-        <v>19.96396047138003</v>
+        <v>19.96396047138009</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>13.08222262601836</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4.215577161783363</v>
+        <v>64.38110837849513</v>
       </c>
       <c r="M15" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="N15" t="n">
-        <v>64.40043854494036</v>
+        <v>17.31712995424729</v>
       </c>
       <c r="O15" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494056</v>
       </c>
       <c r="P15" t="n">
-        <v>44.50060083613093</v>
+        <v>44.50060083613099</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L17" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M17" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="N17" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="O17" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P17" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>17.29779978780173</v>
+        <v>17.29779978780181</v>
       </c>
       <c r="M18" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="N18" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="O18" t="n">
-        <v>64.40043854494036</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="P18" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L20" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M20" t="n">
         <v>76.38258547237476</v>
@@ -36133,10 +36133,10 @@
         <v>76.38258547237476</v>
       </c>
       <c r="O20" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P20" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>13.08222262601836</v>
       </c>
       <c r="L21" t="n">
-        <v>64.3811083784951</v>
+        <v>64.38110837849507</v>
       </c>
       <c r="M21" t="n">
-        <v>27.71507403451421</v>
+        <v>27.71507403451429</v>
       </c>
       <c r="N21" t="n">
         <v>76.38258547237476</v>
@@ -36215,7 +36215,7 @@
         <v>76.38258547237476</v>
       </c>
       <c r="P21" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L23" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M23" t="n">
         <v>76.38258547237476</v>
       </c>
       <c r="N23" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="O23" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P23" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>13.08222262601836</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>64.3811083784951</v>
+        <v>64.38110837849507</v>
       </c>
       <c r="M24" t="n">
-        <v>41.77042042253075</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="N24" t="n">
-        <v>82.27894806472398</v>
+        <v>54.85264304854909</v>
       </c>
       <c r="O24" t="n">
-        <v>79.77808998898769</v>
+        <v>79.77808998898766</v>
       </c>
       <c r="P24" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L26" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M26" t="n">
         <v>76.38258547237476</v>
       </c>
       <c r="N26" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="O26" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P26" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>13.08222262601836</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>64.3811083784951</v>
+        <v>64.38110837849507</v>
       </c>
       <c r="M27" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="N27" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="O27" t="n">
-        <v>39.26956234679449</v>
+        <v>52.35178497281282</v>
       </c>
       <c r="P27" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L29" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M29" t="n">
         <v>76.38258547237476</v>
       </c>
       <c r="N29" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="O29" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P29" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>36.95480336232025</v>
+        <v>64.38110837849507</v>
       </c>
       <c r="M30" t="n">
-        <v>82.27894806472398</v>
+        <v>54.85264304854909</v>
       </c>
       <c r="N30" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="O30" t="n">
-        <v>79.77808998898769</v>
+        <v>79.77808998898766</v>
       </c>
       <c r="P30" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L32" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M32" t="n">
         <v>76.38258547237476</v>
       </c>
       <c r="N32" t="n">
-        <v>82.27894806472398</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="O32" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P32" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>13.08222262601836</v>
       </c>
       <c r="L33" t="n">
-        <v>64.3811083784951</v>
+        <v>64.38110837849507</v>
       </c>
       <c r="M33" t="n">
-        <v>41.77042042253075</v>
+        <v>82.27894806472392</v>
       </c>
       <c r="N33" t="n">
-        <v>82.27894806472398</v>
+        <v>41.77042042253074</v>
       </c>
       <c r="O33" t="n">
-        <v>79.77808998898769</v>
+        <v>79.77808998898766</v>
       </c>
       <c r="P33" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L35" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M35" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="N35" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="O35" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P35" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>13.08222262601836</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>64.3811083784951</v>
+        <v>17.29779978780154</v>
       </c>
       <c r="M36" t="n">
-        <v>4.23490732822898</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="N36" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="O36" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="P36" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L38" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M38" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="N38" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="O38" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P38" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>13.08222262601836</v>
       </c>
       <c r="L39" t="n">
-        <v>64.3811083784951</v>
+        <v>64.38110837849507</v>
       </c>
       <c r="M39" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="N39" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494019</v>
       </c>
       <c r="O39" t="n">
-        <v>4.234907328228965</v>
+        <v>4.234907328228305</v>
       </c>
       <c r="P39" t="n">
-        <v>44.50060083613096</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.114022847740699</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L41" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M41" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="N41" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="O41" t="n">
-        <v>64.22371664523141</v>
+        <v>64.22371664523135</v>
       </c>
       <c r="P41" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>13.08222262601836</v>
       </c>
       <c r="L42" t="n">
-        <v>64.3811083784951</v>
+        <v>64.38110837849507</v>
       </c>
       <c r="M42" t="n">
-        <v>64.40043854494056</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="N42" t="n">
-        <v>64.40043854494056</v>
+        <v>4.234907328228792</v>
       </c>
       <c r="O42" t="n">
-        <v>61.81773079037831</v>
+        <v>64.40043854494043</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>44.50060083613093</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.114022847740671</v>
       </c>
       <c r="L44" t="n">
-        <v>39.89713920452107</v>
+        <v>39.89713920452101</v>
       </c>
       <c r="M44" t="n">
-        <v>52.41829161750615</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="N44" t="n">
-        <v>52.41829161750615</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="O44" t="n">
-        <v>42.85757278668668</v>
+        <v>40.74354993894604</v>
       </c>
       <c r="P44" t="n">
-        <v>19.96396047138006</v>
+        <v>19.96396047138003</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>13.08222262601836</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="M45" t="n">
-        <v>45.1358490004385</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="N45" t="n">
-        <v>52.41829161750615</v>
+        <v>52.41829161750611</v>
       </c>
       <c r="O45" t="n">
-        <v>52.41829161750615</v>
+        <v>50.30038084508163</v>
       </c>
       <c r="P45" t="n">
-        <v>44.50060083613096</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
